--- a/REGULAR/OJT/NEW DONE/DIGO, VIRGILIO.xlsx
+++ b/REGULAR/OJT/NEW DONE/DIGO, VIRGILIO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVONITALLA FAMILY\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00275ED2-C9B1-48E8-8612-0B363B7C76BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -170,9 +163,6 @@
     <t>SL EARNED</t>
   </si>
   <si>
-    <t>DIGO,VIRGILIO</t>
-  </si>
-  <si>
     <t>LEAVE TRANSFER FROM TCNHS</t>
   </si>
   <si>
@@ -201,9 +191,6 @@
   </si>
   <si>
     <t>9/11-15/2000</t>
-  </si>
-  <si>
-    <t>VL(2-0-00</t>
   </si>
   <si>
     <t>2001</t>
@@ -313,11 +300,50 @@
   <si>
     <t>7/17-21/2017</t>
   </si>
+  <si>
+    <t>DIGO, VIRGILIO</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE I</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>CSU/NATIONAL</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SL(15-0-0)</t>
+  </si>
+  <si>
+    <t>2/8-28/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -548,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,6 +713,12 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -723,10 +755,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1177,7 +1206,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,7 +1249,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1313,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1373,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1439,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1502,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1600,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1659,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1724,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1767,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1842,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,7 +2028,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2094,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2152,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2218,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2274,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2349,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2392,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2458,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2514,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2612,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2675,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2712,25 +2741,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K378" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K385" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2742,13 +2771,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2757,14 +2786,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3068,7 +3097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3086,16 +3115,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K378"/>
+  <dimension ref="A2:K385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A249" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B264" sqref="B264"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A313" activePane="bottomLeft"/>
+      <selection activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="H321" sqref="H321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3117,58 +3146,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="49"/>
+      <c r="B2" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3194,18 +3229,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3252,7 +3287,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>249.8</v>
+        <v>284.3</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3262,7 +3297,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>425.25</v>
+        <v>487.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3270,7 +3305,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="39"/>
@@ -3292,7 +3327,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="39"/>
@@ -3309,7 +3344,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13">
@@ -3332,7 +3367,7 @@
         <v>35442</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="13">
         <v>1.25</v>
@@ -3352,8 +3387,8 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
-        <v>47</v>
+      <c r="A14" s="48" t="s">
+        <v>46</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -3371,10 +3406,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="13">
         <v>15</v>
@@ -3394,8 +3429,8 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="60" t="s">
-        <v>49</v>
+      <c r="A16" s="48" t="s">
+        <v>48</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="13"/>
@@ -3413,10 +3448,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="42">
         <v>15</v>
@@ -3436,8 +3471,8 @@
       <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="60" t="s">
-        <v>50</v>
+      <c r="A18" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -3618,12 +3653,14 @@
         <v>36770</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
       </c>
-      <c r="D27" s="39"/>
+      <c r="D27" s="39">
+        <v>5</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
@@ -3634,7 +3671,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
       <c r="K27" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3662,12 +3699,14 @@
         <v>36831</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C29" s="13">
         <v>1.25</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="39">
+        <v>2</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
       <c r="G29" s="13">
@@ -3700,8 +3739,8 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="60" t="s">
-        <v>54</v>
+      <c r="A31" s="48" t="s">
+        <v>52</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3946,7 +3985,7 @@
         <v>37226</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="13">
         <v>1.25</v>
@@ -3966,8 +4005,8 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="60" t="s">
-        <v>55</v>
+      <c r="A44" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -4212,7 +4251,7 @@
         <v>37591</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="13">
         <v>1.25</v>
@@ -4232,8 +4271,8 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="60" t="s">
-        <v>56</v>
+      <c r="A57" s="48" t="s">
+        <v>54</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4478,7 +4517,7 @@
         <v>37956</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -4498,8 +4537,8 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="60" t="s">
-        <v>57</v>
+      <c r="A70" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4720,7 +4759,7 @@
         <v>38292</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C81" s="13">
         <v>1.25</v>
@@ -4738,7 +4777,7 @@
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4746,7 +4785,7 @@
         <v>38322</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C82" s="13">
         <v>1.25</v>
@@ -4766,8 +4805,8 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="60" t="s">
-        <v>58</v>
+      <c r="A83" s="48" t="s">
+        <v>56</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4992,7 +5031,7 @@
         <v>38657</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C94" s="13">
         <v>1.25</v>
@@ -5010,7 +5049,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -5018,7 +5057,7 @@
         <v>38687</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C95" s="13">
         <v>1.25</v>
@@ -5038,8 +5077,8 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="60" t="s">
-        <v>59</v>
+      <c r="A96" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5164,7 +5203,7 @@
         <v>38869</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C102" s="13">
         <v>1.25</v>
@@ -5208,7 +5247,7 @@
         <v>38930</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C104" s="13">
         <v>1.25</v>
@@ -5232,7 +5271,7 @@
         <v>38961</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C105" s="13">
         <v>1.25</v>
@@ -5270,7 +5309,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
       <c r="K106" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -5278,7 +5317,7 @@
         <v>39022</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C107" s="13">
         <v>1.25</v>
@@ -5301,11 +5340,15 @@
       <c r="A108" s="40">
         <v>39052</v>
       </c>
-      <c r="B108" s="20"/>
+      <c r="B108" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C108" s="13">
         <v>1.25</v>
       </c>
-      <c r="D108" s="39"/>
+      <c r="D108" s="39">
+        <v>1</v>
+      </c>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
       <c r="G108" s="13">
@@ -5318,8 +5361,8 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="60" t="s">
-        <v>60</v>
+      <c r="A109" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5564,7 +5607,7 @@
         <v>39417</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C121" s="13">
         <v>1.25</v>
@@ -5584,8 +5627,8 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="60" t="s">
-        <v>68</v>
+      <c r="A122" s="48" t="s">
+        <v>66</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5830,12 +5873,14 @@
         <v>39783</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C134" s="13">
         <v>1.25</v>
       </c>
-      <c r="D134" s="39"/>
+      <c r="D134" s="39">
+        <v>5</v>
+      </c>
       <c r="E134" s="9"/>
       <c r="F134" s="20"/>
       <c r="G134" s="13">
@@ -5848,8 +5893,8 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="60" t="s">
-        <v>69</v>
+      <c r="A135" s="48" t="s">
+        <v>67</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5954,7 +5999,7 @@
         <v>39934</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C140" s="13">
         <v>1.25</v>
@@ -5976,7 +6021,7 @@
       </c>
       <c r="J140" s="11"/>
       <c r="K140" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -6004,7 +6049,7 @@
         <v>39995</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C142" s="13">
         <v>1.25</v>
@@ -6022,7 +6067,7 @@
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
       <c r="K142" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -6126,8 +6171,8 @@
       <c r="K147" s="20"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="60" t="s">
-        <v>70</v>
+      <c r="A148" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -6372,7 +6417,7 @@
         <v>40513</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C160" s="13">
         <v>1.25</v>
@@ -6392,8 +6437,8 @@
       <c r="K160" s="20"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161" s="60" t="s">
-        <v>71</v>
+      <c r="A161" s="48" t="s">
+        <v>69</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6638,7 +6683,7 @@
         <v>40878</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C173" s="13">
         <v>1.25</v>
@@ -6658,8 +6703,8 @@
       <c r="K173" s="20"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A174" s="60" t="s">
-        <v>72</v>
+      <c r="A174" s="48" t="s">
+        <v>70</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6904,7 +6949,7 @@
         <v>41244</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C186" s="13">
         <v>1.25</v>
@@ -6924,8 +6969,8 @@
       <c r="K186" s="20"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A187" s="60" t="s">
-        <v>80</v>
+      <c r="A187" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -7170,7 +7215,7 @@
         <v>41609</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C199" s="13">
         <v>1.25</v>
@@ -7190,8 +7235,8 @@
       <c r="K199" s="20"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A200" s="60" t="s">
-        <v>84</v>
+      <c r="A200" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -7436,7 +7481,7 @@
         <v>41974</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C212" s="13">
         <v>1.25</v>
@@ -7456,8 +7501,8 @@
       <c r="K212" s="20"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A213" s="60" t="s">
-        <v>83</v>
+      <c r="A213" s="48" t="s">
+        <v>81</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -7702,7 +7747,7 @@
         <v>42339</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C225" s="13">
         <v>1.25</v>
@@ -7722,8 +7767,8 @@
       <c r="K225" s="20"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A226" s="60" t="s">
-        <v>82</v>
+      <c r="A226" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -7968,7 +8013,7 @@
         <v>42705</v>
       </c>
       <c r="B238" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C238" s="13">
         <v>1.25</v>
@@ -7988,8 +8033,8 @@
       <c r="K238" s="20"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A239" s="60" t="s">
-        <v>81</v>
+      <c r="A239" s="48" t="s">
+        <v>79</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -8114,7 +8159,7 @@
         <v>42887</v>
       </c>
       <c r="B245" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C245" s="13">
         <v>1.25</v>
@@ -8131,14 +8176,14 @@
       </c>
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
-      <c r="K245" s="61">
+      <c r="K245" s="49">
         <v>42984</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C246" s="13"/>
       <c r="D246" s="39"/>
@@ -8154,7 +8199,7 @@
       <c r="I246" s="9"/>
       <c r="J246" s="11"/>
       <c r="K246" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
@@ -8162,7 +8207,7 @@
         <v>42917</v>
       </c>
       <c r="B247" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C247" s="13">
         <v>1.25</v>
@@ -8180,7 +8225,7 @@
       <c r="I247" s="9"/>
       <c r="J247" s="11"/>
       <c r="K247" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
@@ -8268,7 +8313,7 @@
         <v>43070</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C252" s="13">
         <v>1.25</v>
@@ -8285,32 +8330,34 @@
       </c>
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
-      <c r="K252" s="61">
+      <c r="K252" s="49">
         <v>39153</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A253" s="60"/>
-      <c r="B253" s="20"/>
+      <c r="A253" s="40"/>
+      <c r="B253" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C253" s="13"/>
-      <c r="D253" s="39"/>
-      <c r="E253" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="D253" s="39">
+        <v>5</v>
+      </c>
+      <c r="E253" s="9"/>
       <c r="F253" s="20"/>
       <c r="G253" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H253" s="39"/>
-      <c r="I253" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I253" s="9"/>
       <c r="J253" s="11"/>
-      <c r="K253" s="20"/>
+      <c r="K253" s="49"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A254" s="40"/>
+      <c r="A254" s="48" t="s">
+        <v>93</v>
+      </c>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
       <c r="D254" s="39"/>
@@ -8323,34 +8370,46 @@
       <c r="H254" s="39"/>
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
-      <c r="K254" s="20"/>
+      <c r="K254" s="49"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A255" s="40"/>
+      <c r="A255" s="62">
+        <v>43101</v>
+      </c>
       <c r="B255" s="20"/>
-      <c r="C255" s="13"/>
+      <c r="C255" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D255" s="39"/>
-      <c r="E255" s="9"/>
+      <c r="E255" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F255" s="20"/>
-      <c r="G255" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G255" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H255" s="39"/>
-      <c r="I255" s="9"/>
+      <c r="I255" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A256" s="40"/>
+      <c r="A256" s="62">
+        <v>43132</v>
+      </c>
       <c r="B256" s="20"/>
-      <c r="C256" s="13"/>
+      <c r="C256" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D256" s="39"/>
       <c r="E256" s="9"/>
       <c r="F256" s="20"/>
-      <c r="G256" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G256" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H256" s="39"/>
       <c r="I256" s="9"/>
@@ -8358,15 +8417,19 @@
       <c r="K256" s="20"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A257" s="40"/>
+      <c r="A257" s="62">
+        <v>43160</v>
+      </c>
       <c r="B257" s="20"/>
-      <c r="C257" s="13"/>
+      <c r="C257" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D257" s="39"/>
       <c r="E257" s="9"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G257" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H257" s="39"/>
       <c r="I257" s="9"/>
@@ -8374,15 +8437,19 @@
       <c r="K257" s="20"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A258" s="40"/>
+      <c r="A258" s="62">
+        <v>43191</v>
+      </c>
       <c r="B258" s="20"/>
-      <c r="C258" s="13"/>
+      <c r="C258" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D258" s="39"/>
       <c r="E258" s="9"/>
       <c r="F258" s="20"/>
-      <c r="G258" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G258" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H258" s="39"/>
       <c r="I258" s="9"/>
@@ -8390,15 +8457,19 @@
       <c r="K258" s="20"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A259" s="40"/>
+      <c r="A259" s="62">
+        <v>43221</v>
+      </c>
       <c r="B259" s="20"/>
-      <c r="C259" s="13"/>
+      <c r="C259" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D259" s="39"/>
       <c r="E259" s="9"/>
       <c r="F259" s="20"/>
-      <c r="G259" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G259" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H259" s="39"/>
       <c r="I259" s="9"/>
@@ -8406,15 +8477,19 @@
       <c r="K259" s="20"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A260" s="40"/>
+      <c r="A260" s="62">
+        <v>43252</v>
+      </c>
       <c r="B260" s="20"/>
-      <c r="C260" s="13"/>
+      <c r="C260" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D260" s="39"/>
       <c r="E260" s="9"/>
       <c r="F260" s="20"/>
-      <c r="G260" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G260" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H260" s="39"/>
       <c r="I260" s="9"/>
@@ -8422,15 +8497,19 @@
       <c r="K260" s="20"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A261" s="40"/>
+      <c r="A261" s="62">
+        <v>43282</v>
+      </c>
       <c r="B261" s="20"/>
-      <c r="C261" s="13"/>
+      <c r="C261" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D261" s="39"/>
       <c r="E261" s="9"/>
       <c r="F261" s="20"/>
-      <c r="G261" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G261" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H261" s="39"/>
       <c r="I261" s="9"/>
@@ -8438,15 +8517,19 @@
       <c r="K261" s="20"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A262" s="40"/>
+      <c r="A262" s="62">
+        <v>43313</v>
+      </c>
       <c r="B262" s="20"/>
-      <c r="C262" s="13"/>
+      <c r="C262" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D262" s="39"/>
       <c r="E262" s="9"/>
       <c r="F262" s="20"/>
-      <c r="G262" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G262" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H262" s="39"/>
       <c r="I262" s="9"/>
@@ -8454,15 +8537,19 @@
       <c r="K262" s="20"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A263" s="40"/>
+      <c r="A263" s="62">
+        <v>43344</v>
+      </c>
       <c r="B263" s="20"/>
-      <c r="C263" s="13"/>
+      <c r="C263" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D263" s="39"/>
       <c r="E263" s="9"/>
       <c r="F263" s="20"/>
-      <c r="G263" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G263" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H263" s="39"/>
       <c r="I263" s="9"/>
@@ -8470,15 +8557,19 @@
       <c r="K263" s="20"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A264" s="40"/>
+      <c r="A264" s="62">
+        <v>43374</v>
+      </c>
       <c r="B264" s="20"/>
-      <c r="C264" s="13"/>
+      <c r="C264" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D264" s="39"/>
       <c r="E264" s="9"/>
       <c r="F264" s="20"/>
-      <c r="G264" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G264" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H264" s="39"/>
       <c r="I264" s="9"/>
@@ -8486,15 +8577,19 @@
       <c r="K264" s="20"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A265" s="40"/>
+      <c r="A265" s="62">
+        <v>43405</v>
+      </c>
       <c r="B265" s="20"/>
-      <c r="C265" s="13"/>
+      <c r="C265" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D265" s="39"/>
       <c r="E265" s="9"/>
       <c r="F265" s="20"/>
-      <c r="G265" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G265" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H265" s="39"/>
       <c r="I265" s="9"/>
@@ -8502,27 +8597,33 @@
       <c r="K265" s="20"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A266" s="60"/>
-      <c r="B266" s="20"/>
-      <c r="C266" s="13"/>
-      <c r="D266" s="39"/>
-      <c r="E266" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="A266" s="62">
+        <v>43435</v>
+      </c>
+      <c r="B266" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C266" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D266" s="39">
+        <v>5</v>
+      </c>
+      <c r="E266" s="9"/>
       <c r="F266" s="20"/>
-      <c r="G266" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G266" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H266" s="39"/>
-      <c r="I266" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I266" s="9"/>
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A267" s="40"/>
+      <c r="A267" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
       <c r="D267" s="39"/>
@@ -8538,15 +8639,19 @@
       <c r="K267" s="20"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A268" s="40"/>
+      <c r="A268" s="62">
+        <v>43466</v>
+      </c>
       <c r="B268" s="20"/>
-      <c r="C268" s="13"/>
+      <c r="C268" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D268" s="39"/>
       <c r="E268" s="9"/>
       <c r="F268" s="20"/>
-      <c r="G268" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G268" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H268" s="39"/>
       <c r="I268" s="9"/>
@@ -8554,31 +8659,43 @@
       <c r="K268" s="20"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A269" s="40"/>
+      <c r="A269" s="62">
+        <v>43497</v>
+      </c>
       <c r="B269" s="20"/>
-      <c r="C269" s="13"/>
+      <c r="C269" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D269" s="39"/>
-      <c r="E269" s="9"/>
+      <c r="E269" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F269" s="20"/>
-      <c r="G269" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G269" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H269" s="39"/>
-      <c r="I269" s="9"/>
+      <c r="I269" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A270" s="40"/>
+      <c r="A270" s="62">
+        <v>43525</v>
+      </c>
       <c r="B270" s="20"/>
-      <c r="C270" s="13"/>
+      <c r="C270" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D270" s="39"/>
       <c r="E270" s="9"/>
       <c r="F270" s="20"/>
-      <c r="G270" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G270" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H270" s="39"/>
       <c r="I270" s="9"/>
@@ -8586,15 +8703,19 @@
       <c r="K270" s="20"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A271" s="40"/>
+      <c r="A271" s="62">
+        <v>43556</v>
+      </c>
       <c r="B271" s="20"/>
-      <c r="C271" s="13"/>
+      <c r="C271" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D271" s="39"/>
       <c r="E271" s="9"/>
       <c r="F271" s="20"/>
-      <c r="G271" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G271" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H271" s="39"/>
       <c r="I271" s="9"/>
@@ -8602,15 +8723,19 @@
       <c r="K271" s="20"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A272" s="40"/>
+      <c r="A272" s="62">
+        <v>43586</v>
+      </c>
       <c r="B272" s="20"/>
-      <c r="C272" s="13"/>
+      <c r="C272" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D272" s="39"/>
       <c r="E272" s="9"/>
       <c r="F272" s="20"/>
-      <c r="G272" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G272" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H272" s="39"/>
       <c r="I272" s="9"/>
@@ -8618,15 +8743,19 @@
       <c r="K272" s="20"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A273" s="40"/>
+      <c r="A273" s="62">
+        <v>43617</v>
+      </c>
       <c r="B273" s="20"/>
-      <c r="C273" s="13"/>
+      <c r="C273" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D273" s="39"/>
       <c r="E273" s="9"/>
       <c r="F273" s="20"/>
-      <c r="G273" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G273" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H273" s="39"/>
       <c r="I273" s="9"/>
@@ -8634,15 +8763,19 @@
       <c r="K273" s="20"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A274" s="40"/>
+      <c r="A274" s="62">
+        <v>43647</v>
+      </c>
       <c r="B274" s="20"/>
-      <c r="C274" s="13"/>
+      <c r="C274" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D274" s="39"/>
       <c r="E274" s="9"/>
       <c r="F274" s="20"/>
-      <c r="G274" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G274" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H274" s="39"/>
       <c r="I274" s="9"/>
@@ -8650,15 +8783,19 @@
       <c r="K274" s="20"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A275" s="40"/>
+      <c r="A275" s="62">
+        <v>43678</v>
+      </c>
       <c r="B275" s="20"/>
-      <c r="C275" s="13"/>
+      <c r="C275" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D275" s="39"/>
       <c r="E275" s="9"/>
       <c r="F275" s="20"/>
-      <c r="G275" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G275" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H275" s="39"/>
       <c r="I275" s="9"/>
@@ -8666,15 +8803,19 @@
       <c r="K275" s="20"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A276" s="40"/>
+      <c r="A276" s="62">
+        <v>43709</v>
+      </c>
       <c r="B276" s="20"/>
-      <c r="C276" s="13"/>
+      <c r="C276" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D276" s="39"/>
       <c r="E276" s="9"/>
       <c r="F276" s="20"/>
-      <c r="G276" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G276" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H276" s="39"/>
       <c r="I276" s="9"/>
@@ -8682,15 +8823,19 @@
       <c r="K276" s="20"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A277" s="40"/>
+      <c r="A277" s="62">
+        <v>43739</v>
+      </c>
       <c r="B277" s="20"/>
-      <c r="C277" s="13"/>
+      <c r="C277" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D277" s="39"/>
       <c r="E277" s="9"/>
       <c r="F277" s="20"/>
-      <c r="G277" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G277" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H277" s="39"/>
       <c r="I277" s="9"/>
@@ -8698,15 +8843,19 @@
       <c r="K277" s="20"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A278" s="40"/>
+      <c r="A278" s="62">
+        <v>43770</v>
+      </c>
       <c r="B278" s="20"/>
-      <c r="C278" s="13"/>
+      <c r="C278" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D278" s="39"/>
       <c r="E278" s="9"/>
       <c r="F278" s="20"/>
-      <c r="G278" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G278" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H278" s="39"/>
       <c r="I278" s="9"/>
@@ -8714,27 +8863,33 @@
       <c r="K278" s="20"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A279" s="60"/>
-      <c r="B279" s="20"/>
-      <c r="C279" s="13"/>
-      <c r="D279" s="39"/>
-      <c r="E279" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="A279" s="62">
+        <v>43800</v>
+      </c>
+      <c r="B279" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C279" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D279" s="39">
+        <v>5</v>
+      </c>
+      <c r="E279" s="9"/>
       <c r="F279" s="20"/>
-      <c r="G279" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G279" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H279" s="39"/>
-      <c r="I279" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I279" s="9"/>
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A280" s="40"/>
+      <c r="A280" s="48" t="s">
+        <v>95</v>
+      </c>
       <c r="B280" s="20"/>
       <c r="C280" s="13"/>
       <c r="D280" s="39"/>
@@ -8750,15 +8905,19 @@
       <c r="K280" s="20"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A281" s="40"/>
+      <c r="A281" s="62">
+        <v>43831</v>
+      </c>
       <c r="B281" s="20"/>
-      <c r="C281" s="13"/>
+      <c r="C281" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D281" s="39"/>
       <c r="E281" s="9"/>
       <c r="F281" s="20"/>
-      <c r="G281" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G281" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H281" s="39"/>
       <c r="I281" s="9"/>
@@ -8766,15 +8925,19 @@
       <c r="K281" s="20"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A282" s="40"/>
+      <c r="A282" s="62">
+        <v>43862</v>
+      </c>
       <c r="B282" s="20"/>
-      <c r="C282" s="13"/>
+      <c r="C282" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D282" s="39"/>
       <c r="E282" s="9"/>
       <c r="F282" s="20"/>
-      <c r="G282" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G282" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H282" s="39"/>
       <c r="I282" s="9"/>
@@ -8782,31 +8945,43 @@
       <c r="K282" s="20"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A283" s="40"/>
+      <c r="A283" s="62">
+        <v>43891</v>
+      </c>
       <c r="B283" s="20"/>
-      <c r="C283" s="13"/>
+      <c r="C283" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D283" s="39"/>
-      <c r="E283" s="9"/>
+      <c r="E283" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F283" s="20"/>
-      <c r="G283" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G283" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H283" s="39"/>
-      <c r="I283" s="9"/>
+      <c r="I283" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A284" s="40"/>
+      <c r="A284" s="62">
+        <v>43922</v>
+      </c>
       <c r="B284" s="20"/>
-      <c r="C284" s="13"/>
+      <c r="C284" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D284" s="39"/>
       <c r="E284" s="9"/>
       <c r="F284" s="20"/>
-      <c r="G284" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G284" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H284" s="39"/>
       <c r="I284" s="9"/>
@@ -8814,15 +8989,19 @@
       <c r="K284" s="20"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A285" s="40"/>
+      <c r="A285" s="62">
+        <v>43952</v>
+      </c>
       <c r="B285" s="20"/>
-      <c r="C285" s="13"/>
+      <c r="C285" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D285" s="39"/>
       <c r="E285" s="9"/>
       <c r="F285" s="20"/>
-      <c r="G285" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G285" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H285" s="39"/>
       <c r="I285" s="9"/>
@@ -8830,15 +9009,19 @@
       <c r="K285" s="20"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A286" s="40"/>
+      <c r="A286" s="62">
+        <v>43983</v>
+      </c>
       <c r="B286" s="20"/>
-      <c r="C286" s="13"/>
+      <c r="C286" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D286" s="39"/>
       <c r="E286" s="9"/>
       <c r="F286" s="20"/>
-      <c r="G286" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G286" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H286" s="39"/>
       <c r="I286" s="9"/>
@@ -8846,15 +9029,19 @@
       <c r="K286" s="20"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A287" s="40"/>
+      <c r="A287" s="62">
+        <v>44013</v>
+      </c>
       <c r="B287" s="20"/>
-      <c r="C287" s="13"/>
+      <c r="C287" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D287" s="39"/>
       <c r="E287" s="9"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G287" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H287" s="39"/>
       <c r="I287" s="9"/>
@@ -8862,15 +9049,19 @@
       <c r="K287" s="20"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A288" s="40"/>
+      <c r="A288" s="62">
+        <v>44044</v>
+      </c>
       <c r="B288" s="20"/>
-      <c r="C288" s="13"/>
+      <c r="C288" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D288" s="39"/>
       <c r="E288" s="9"/>
       <c r="F288" s="20"/>
-      <c r="G288" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G288" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H288" s="39"/>
       <c r="I288" s="9"/>
@@ -8878,15 +9069,19 @@
       <c r="K288" s="20"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A289" s="40"/>
+      <c r="A289" s="62">
+        <v>44075</v>
+      </c>
       <c r="B289" s="20"/>
-      <c r="C289" s="13"/>
+      <c r="C289" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D289" s="39"/>
       <c r="E289" s="9"/>
       <c r="F289" s="20"/>
-      <c r="G289" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G289" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H289" s="39"/>
       <c r="I289" s="9"/>
@@ -8894,15 +9089,19 @@
       <c r="K289" s="20"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A290" s="40"/>
+      <c r="A290" s="62">
+        <v>44105</v>
+      </c>
       <c r="B290" s="20"/>
-      <c r="C290" s="13"/>
+      <c r="C290" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D290" s="39"/>
       <c r="E290" s="9"/>
       <c r="F290" s="20"/>
-      <c r="G290" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G290" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H290" s="39"/>
       <c r="I290" s="9"/>
@@ -8910,15 +9109,19 @@
       <c r="K290" s="20"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A291" s="40"/>
+      <c r="A291" s="62">
+        <v>44136</v>
+      </c>
       <c r="B291" s="20"/>
-      <c r="C291" s="13"/>
+      <c r="C291" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D291" s="39"/>
       <c r="E291" s="9"/>
       <c r="F291" s="20"/>
-      <c r="G291" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G291" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H291" s="39"/>
       <c r="I291" s="9"/>
@@ -8926,15 +9129,23 @@
       <c r="K291" s="20"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A292" s="40"/>
-      <c r="B292" s="20"/>
-      <c r="C292" s="13"/>
-      <c r="D292" s="39"/>
+      <c r="A292" s="62">
+        <v>44166</v>
+      </c>
+      <c r="B292" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C292" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D292" s="39">
+        <v>5</v>
+      </c>
       <c r="E292" s="9"/>
       <c r="F292" s="20"/>
-      <c r="G292" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G292" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H292" s="39"/>
       <c r="I292" s="9"/>
@@ -8942,7 +9153,9 @@
       <c r="K292" s="20"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A293" s="40"/>
+      <c r="A293" s="48" t="s">
+        <v>96</v>
+      </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
       <c r="D293" s="39"/>
@@ -8958,15 +9171,19 @@
       <c r="K293" s="20"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A294" s="40"/>
+      <c r="A294" s="62">
+        <v>44197</v>
+      </c>
       <c r="B294" s="20"/>
-      <c r="C294" s="13"/>
+      <c r="C294" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D294" s="39"/>
       <c r="E294" s="9"/>
       <c r="F294" s="20"/>
-      <c r="G294" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G294" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H294" s="39"/>
       <c r="I294" s="9"/>
@@ -8974,15 +9191,19 @@
       <c r="K294" s="20"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A295" s="40"/>
+      <c r="A295" s="62">
+        <v>44228</v>
+      </c>
       <c r="B295" s="20"/>
-      <c r="C295" s="13"/>
+      <c r="C295" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D295" s="39"/>
       <c r="E295" s="9"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G295" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H295" s="39"/>
       <c r="I295" s="9"/>
@@ -8990,15 +9211,19 @@
       <c r="K295" s="20"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A296" s="40"/>
+      <c r="A296" s="62">
+        <v>44256</v>
+      </c>
       <c r="B296" s="20"/>
-      <c r="C296" s="13"/>
+      <c r="C296" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D296" s="39"/>
       <c r="E296" s="9"/>
       <c r="F296" s="20"/>
-      <c r="G296" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G296" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H296" s="39"/>
       <c r="I296" s="9"/>
@@ -9006,15 +9231,19 @@
       <c r="K296" s="20"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A297" s="40"/>
+      <c r="A297" s="62">
+        <v>44287</v>
+      </c>
       <c r="B297" s="20"/>
-      <c r="C297" s="13"/>
+      <c r="C297" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D297" s="39"/>
       <c r="E297" s="9"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G297" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H297" s="39"/>
       <c r="I297" s="9"/>
@@ -9022,15 +9251,19 @@
       <c r="K297" s="20"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A298" s="40"/>
+      <c r="A298" s="62">
+        <v>44317</v>
+      </c>
       <c r="B298" s="20"/>
-      <c r="C298" s="13"/>
+      <c r="C298" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D298" s="39"/>
       <c r="E298" s="9"/>
       <c r="F298" s="20"/>
-      <c r="G298" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G298" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H298" s="39"/>
       <c r="I298" s="9"/>
@@ -9038,15 +9271,19 @@
       <c r="K298" s="20"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A299" s="40"/>
+      <c r="A299" s="62">
+        <v>44348</v>
+      </c>
       <c r="B299" s="20"/>
-      <c r="C299" s="13"/>
+      <c r="C299" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D299" s="39"/>
       <c r="E299" s="9"/>
       <c r="F299" s="20"/>
-      <c r="G299" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G299" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H299" s="39"/>
       <c r="I299" s="9"/>
@@ -9054,15 +9291,19 @@
       <c r="K299" s="20"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A300" s="40"/>
+      <c r="A300" s="62">
+        <v>44378</v>
+      </c>
       <c r="B300" s="20"/>
-      <c r="C300" s="13"/>
+      <c r="C300" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D300" s="39"/>
       <c r="E300" s="9"/>
       <c r="F300" s="20"/>
-      <c r="G300" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G300" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H300" s="39"/>
       <c r="I300" s="9"/>
@@ -9070,15 +9311,19 @@
       <c r="K300" s="20"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A301" s="40"/>
+      <c r="A301" s="62">
+        <v>44409</v>
+      </c>
       <c r="B301" s="20"/>
-      <c r="C301" s="13"/>
+      <c r="C301" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D301" s="39"/>
       <c r="E301" s="9"/>
       <c r="F301" s="20"/>
-      <c r="G301" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G301" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H301" s="39"/>
       <c r="I301" s="9"/>
@@ -9086,15 +9331,19 @@
       <c r="K301" s="20"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A302" s="40"/>
+      <c r="A302" s="62">
+        <v>44440</v>
+      </c>
       <c r="B302" s="20"/>
-      <c r="C302" s="13"/>
+      <c r="C302" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D302" s="39"/>
       <c r="E302" s="9"/>
       <c r="F302" s="20"/>
-      <c r="G302" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G302" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H302" s="39"/>
       <c r="I302" s="9"/>
@@ -9102,15 +9351,19 @@
       <c r="K302" s="20"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A303" s="40"/>
+      <c r="A303" s="62">
+        <v>44470</v>
+      </c>
       <c r="B303" s="20"/>
-      <c r="C303" s="13"/>
+      <c r="C303" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D303" s="39"/>
       <c r="E303" s="9"/>
       <c r="F303" s="20"/>
-      <c r="G303" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G303" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H303" s="39"/>
       <c r="I303" s="9"/>
@@ -9118,15 +9371,19 @@
       <c r="K303" s="20"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A304" s="40"/>
+      <c r="A304" s="62">
+        <v>44501</v>
+      </c>
       <c r="B304" s="20"/>
-      <c r="C304" s="13"/>
+      <c r="C304" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D304" s="39"/>
       <c r="E304" s="9"/>
       <c r="F304" s="20"/>
-      <c r="G304" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G304" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H304" s="39"/>
       <c r="I304" s="9"/>
@@ -9134,15 +9391,23 @@
       <c r="K304" s="20"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A305" s="40"/>
-      <c r="B305" s="20"/>
-      <c r="C305" s="13"/>
-      <c r="D305" s="39"/>
+      <c r="A305" s="62">
+        <v>44531</v>
+      </c>
+      <c r="B305" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C305" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D305" s="39">
+        <v>5</v>
+      </c>
       <c r="E305" s="9"/>
       <c r="F305" s="20"/>
-      <c r="G305" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G305" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H305" s="39"/>
       <c r="I305" s="9"/>
@@ -9150,7 +9415,9 @@
       <c r="K305" s="20"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A306" s="40"/>
+      <c r="A306" s="48" t="s">
+        <v>97</v>
+      </c>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
       <c r="D306" s="39"/>
@@ -9166,15 +9433,19 @@
       <c r="K306" s="20"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A307" s="40"/>
+      <c r="A307" s="62">
+        <v>44562</v>
+      </c>
       <c r="B307" s="20"/>
-      <c r="C307" s="13"/>
+      <c r="C307" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D307" s="39"/>
       <c r="E307" s="9"/>
       <c r="F307" s="20"/>
-      <c r="G307" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G307" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H307" s="39"/>
       <c r="I307" s="9"/>
@@ -9182,15 +9453,19 @@
       <c r="K307" s="20"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A308" s="40"/>
+      <c r="A308" s="62">
+        <v>44593</v>
+      </c>
       <c r="B308" s="20"/>
-      <c r="C308" s="13"/>
+      <c r="C308" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D308" s="39"/>
       <c r="E308" s="9"/>
       <c r="F308" s="20"/>
-      <c r="G308" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G308" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H308" s="39"/>
       <c r="I308" s="9"/>
@@ -9198,15 +9473,19 @@
       <c r="K308" s="20"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A309" s="40"/>
+      <c r="A309" s="62">
+        <v>44621</v>
+      </c>
       <c r="B309" s="20"/>
-      <c r="C309" s="13"/>
+      <c r="C309" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D309" s="39"/>
       <c r="E309" s="9"/>
       <c r="F309" s="20"/>
-      <c r="G309" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G309" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H309" s="39"/>
       <c r="I309" s="9"/>
@@ -9214,15 +9493,19 @@
       <c r="K309" s="20"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A310" s="40"/>
+      <c r="A310" s="62">
+        <v>44652</v>
+      </c>
       <c r="B310" s="20"/>
-      <c r="C310" s="13"/>
+      <c r="C310" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D310" s="39"/>
       <c r="E310" s="9"/>
       <c r="F310" s="20"/>
-      <c r="G310" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G310" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H310" s="39"/>
       <c r="I310" s="9"/>
@@ -9230,15 +9513,19 @@
       <c r="K310" s="20"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A311" s="40"/>
+      <c r="A311" s="62">
+        <v>44682</v>
+      </c>
       <c r="B311" s="20"/>
-      <c r="C311" s="13"/>
+      <c r="C311" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D311" s="39"/>
       <c r="E311" s="9"/>
       <c r="F311" s="20"/>
-      <c r="G311" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G311" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H311" s="39"/>
       <c r="I311" s="9"/>
@@ -9246,15 +9533,19 @@
       <c r="K311" s="20"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A312" s="40"/>
+      <c r="A312" s="62">
+        <v>44713</v>
+      </c>
       <c r="B312" s="20"/>
-      <c r="C312" s="13"/>
+      <c r="C312" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D312" s="39"/>
       <c r="E312" s="9"/>
       <c r="F312" s="20"/>
-      <c r="G312" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G312" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H312" s="39"/>
       <c r="I312" s="9"/>
@@ -9262,15 +9553,19 @@
       <c r="K312" s="20"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A313" s="40"/>
+      <c r="A313" s="62">
+        <v>44743</v>
+      </c>
       <c r="B313" s="20"/>
-      <c r="C313" s="13"/>
+      <c r="C313" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D313" s="39"/>
       <c r="E313" s="9"/>
       <c r="F313" s="20"/>
-      <c r="G313" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G313" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H313" s="39"/>
       <c r="I313" s="9"/>
@@ -9278,15 +9573,19 @@
       <c r="K313" s="20"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A314" s="40"/>
+      <c r="A314" s="62">
+        <v>44774</v>
+      </c>
       <c r="B314" s="20"/>
-      <c r="C314" s="13"/>
+      <c r="C314" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D314" s="39"/>
       <c r="E314" s="9"/>
       <c r="F314" s="20"/>
-      <c r="G314" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G314" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H314" s="39"/>
       <c r="I314" s="9"/>
@@ -9294,15 +9593,19 @@
       <c r="K314" s="20"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A315" s="40"/>
+      <c r="A315" s="62">
+        <v>44805</v>
+      </c>
       <c r="B315" s="20"/>
-      <c r="C315" s="13"/>
+      <c r="C315" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D315" s="39"/>
       <c r="E315" s="9"/>
       <c r="F315" s="20"/>
-      <c r="G315" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G315" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H315" s="39"/>
       <c r="I315" s="9"/>
@@ -9310,15 +9613,19 @@
       <c r="K315" s="20"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A316" s="40"/>
+      <c r="A316" s="62">
+        <v>44835</v>
+      </c>
       <c r="B316" s="20"/>
-      <c r="C316" s="13"/>
+      <c r="C316" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D316" s="39"/>
       <c r="E316" s="9"/>
       <c r="F316" s="20"/>
-      <c r="G316" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G316" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H316" s="39"/>
       <c r="I316" s="9"/>
@@ -9326,15 +9633,19 @@
       <c r="K316" s="20"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A317" s="40"/>
+      <c r="A317" s="62">
+        <v>44866</v>
+      </c>
       <c r="B317" s="20"/>
-      <c r="C317" s="13"/>
+      <c r="C317" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D317" s="39"/>
       <c r="E317" s="9"/>
       <c r="F317" s="20"/>
-      <c r="G317" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G317" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H317" s="39"/>
       <c r="I317" s="9"/>
@@ -9342,15 +9653,23 @@
       <c r="K317" s="20"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A318" s="40"/>
-      <c r="B318" s="20"/>
-      <c r="C318" s="13"/>
-      <c r="D318" s="39"/>
+      <c r="A318" s="62">
+        <v>44896</v>
+      </c>
+      <c r="B318" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C318" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D318" s="39">
+        <v>5</v>
+      </c>
       <c r="E318" s="9"/>
       <c r="F318" s="20"/>
-      <c r="G318" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G318" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H318" s="39"/>
       <c r="I318" s="9"/>
@@ -9358,7 +9677,9 @@
       <c r="K318" s="20"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A319" s="40"/>
+      <c r="A319" s="48" t="s">
+        <v>98</v>
+      </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
       <c r="D319" s="39"/>
@@ -9374,15 +9695,19 @@
       <c r="K319" s="20"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A320" s="40"/>
+      <c r="A320" s="62">
+        <v>44927</v>
+      </c>
       <c r="B320" s="20"/>
-      <c r="C320" s="13"/>
+      <c r="C320" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D320" s="39"/>
       <c r="E320" s="9"/>
       <c r="F320" s="20"/>
-      <c r="G320" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G320" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H320" s="39"/>
       <c r="I320" s="9"/>
@@ -9390,23 +9715,35 @@
       <c r="K320" s="20"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A321" s="40"/>
-      <c r="B321" s="20"/>
-      <c r="C321" s="13"/>
+      <c r="A321" s="62">
+        <v>44958</v>
+      </c>
+      <c r="B321" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C321" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D321" s="39"/>
       <c r="E321" s="9"/>
       <c r="F321" s="20"/>
-      <c r="G321" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H321" s="39"/>
+      <c r="G321" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H321" s="39">
+        <v>15</v>
+      </c>
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
-      <c r="K321" s="20"/>
+      <c r="K321" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A322" s="40"/>
+      <c r="A322" s="62">
+        <v>44986</v>
+      </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
       <c r="D322" s="39"/>
@@ -9422,7 +9759,9 @@
       <c r="K322" s="20"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A323" s="40"/>
+      <c r="A323" s="62">
+        <v>45017</v>
+      </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
       <c r="D323" s="39"/>
@@ -9438,7 +9777,9 @@
       <c r="K323" s="20"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A324" s="40"/>
+      <c r="A324" s="62">
+        <v>45047</v>
+      </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
       <c r="D324" s="39"/>
@@ -9454,7 +9795,9 @@
       <c r="K324" s="20"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A325" s="40"/>
+      <c r="A325" s="62">
+        <v>45078</v>
+      </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
       <c r="D325" s="39"/>
@@ -9470,7 +9813,9 @@
       <c r="K325" s="20"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A326" s="40"/>
+      <c r="A326" s="62">
+        <v>45108</v>
+      </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
       <c r="D326" s="39"/>
@@ -9486,7 +9831,9 @@
       <c r="K326" s="20"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A327" s="40"/>
+      <c r="A327" s="62">
+        <v>45139</v>
+      </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
       <c r="D327" s="39"/>
@@ -9502,7 +9849,9 @@
       <c r="K327" s="20"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A328" s="40"/>
+      <c r="A328" s="62">
+        <v>45170</v>
+      </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
       <c r="D328" s="39"/>
@@ -9518,7 +9867,9 @@
       <c r="K328" s="20"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A329" s="40"/>
+      <c r="A329" s="62">
+        <v>45200</v>
+      </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
       <c r="D329" s="39"/>
@@ -9534,7 +9885,9 @@
       <c r="K329" s="20"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A330" s="40"/>
+      <c r="A330" s="62">
+        <v>45231</v>
+      </c>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
       <c r="D330" s="39"/>
@@ -9550,7 +9903,9 @@
       <c r="K330" s="20"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A331" s="40"/>
+      <c r="A331" s="62">
+        <v>45261</v>
+      </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
       <c r="D331" s="39"/>
@@ -9566,7 +9921,9 @@
       <c r="K331" s="20"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A332" s="40"/>
+      <c r="A332" s="62">
+        <v>45292</v>
+      </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
       <c r="D332" s="39"/>
@@ -9582,7 +9939,9 @@
       <c r="K332" s="20"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A333" s="40"/>
+      <c r="A333" s="62">
+        <v>45323</v>
+      </c>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
       <c r="D333" s="39"/>
@@ -9598,7 +9957,9 @@
       <c r="K333" s="20"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A334" s="40"/>
+      <c r="A334" s="62">
+        <v>45352</v>
+      </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
       <c r="D334" s="39"/>
@@ -9614,7 +9975,9 @@
       <c r="K334" s="20"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A335" s="40"/>
+      <c r="A335" s="62">
+        <v>45383</v>
+      </c>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
       <c r="D335" s="39"/>
@@ -9630,7 +9993,9 @@
       <c r="K335" s="20"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A336" s="40"/>
+      <c r="A336" s="62">
+        <v>45413</v>
+      </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
       <c r="D336" s="39"/>
@@ -9646,7 +10011,9 @@
       <c r="K336" s="20"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A337" s="40"/>
+      <c r="A337" s="62">
+        <v>45444</v>
+      </c>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
       <c r="D337" s="39"/>
@@ -9662,7 +10029,9 @@
       <c r="K337" s="20"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A338" s="40"/>
+      <c r="A338" s="62">
+        <v>45474</v>
+      </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
       <c r="D338" s="39"/>
@@ -9678,7 +10047,9 @@
       <c r="K338" s="20"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A339" s="40"/>
+      <c r="A339" s="62">
+        <v>45505</v>
+      </c>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
       <c r="D339" s="39"/>
@@ -9694,7 +10065,9 @@
       <c r="K339" s="20"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A340" s="40"/>
+      <c r="A340" s="62">
+        <v>45536</v>
+      </c>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
       <c r="D340" s="39"/>
@@ -9710,7 +10083,9 @@
       <c r="K340" s="20"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A341" s="40"/>
+      <c r="A341" s="62">
+        <v>45566</v>
+      </c>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
       <c r="D341" s="39"/>
@@ -9726,7 +10101,9 @@
       <c r="K341" s="20"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A342" s="40"/>
+      <c r="A342" s="62">
+        <v>45597</v>
+      </c>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
       <c r="D342" s="39"/>
@@ -9742,7 +10119,9 @@
       <c r="K342" s="20"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A343" s="40"/>
+      <c r="A343" s="62">
+        <v>45627</v>
+      </c>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
       <c r="D343" s="39"/>
@@ -9758,7 +10137,9 @@
       <c r="K343" s="20"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A344" s="40"/>
+      <c r="A344" s="62">
+        <v>45658</v>
+      </c>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
       <c r="D344" s="39"/>
@@ -9774,7 +10155,9 @@
       <c r="K344" s="20"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A345" s="40"/>
+      <c r="A345" s="62">
+        <v>45689</v>
+      </c>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
       <c r="D345" s="39"/>
@@ -9790,7 +10173,9 @@
       <c r="K345" s="20"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A346" s="40"/>
+      <c r="A346" s="62">
+        <v>45717</v>
+      </c>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
       <c r="D346" s="39"/>
@@ -9806,7 +10191,9 @@
       <c r="K346" s="20"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A347" s="40"/>
+      <c r="A347" s="62">
+        <v>45748</v>
+      </c>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
       <c r="D347" s="39"/>
@@ -9822,7 +10209,9 @@
       <c r="K347" s="20"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A348" s="40"/>
+      <c r="A348" s="62">
+        <v>45778</v>
+      </c>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
       <c r="D348" s="39"/>
@@ -9838,7 +10227,9 @@
       <c r="K348" s="20"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A349" s="40"/>
+      <c r="A349" s="62">
+        <v>45809</v>
+      </c>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
       <c r="D349" s="39"/>
@@ -9854,7 +10245,9 @@
       <c r="K349" s="20"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A350" s="40"/>
+      <c r="A350" s="62">
+        <v>45839</v>
+      </c>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
       <c r="D350" s="39"/>
@@ -9870,7 +10263,9 @@
       <c r="K350" s="20"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A351" s="40"/>
+      <c r="A351" s="62">
+        <v>45870</v>
+      </c>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
       <c r="D351" s="39"/>
@@ -9886,7 +10281,9 @@
       <c r="K351" s="20"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A352" s="40"/>
+      <c r="A352" s="62">
+        <v>45901</v>
+      </c>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
       <c r="D352" s="39"/>
@@ -9902,7 +10299,9 @@
       <c r="K352" s="20"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A353" s="40"/>
+      <c r="A353" s="62">
+        <v>45931</v>
+      </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
       <c r="D353" s="39"/>
@@ -9918,7 +10317,9 @@
       <c r="K353" s="20"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A354" s="40"/>
+      <c r="A354" s="62">
+        <v>45962</v>
+      </c>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
       <c r="D354" s="39"/>
@@ -9934,7 +10335,9 @@
       <c r="K354" s="20"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A355" s="40"/>
+      <c r="A355" s="62">
+        <v>45992</v>
+      </c>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
       <c r="D355" s="39"/>
@@ -9950,7 +10353,9 @@
       <c r="K355" s="20"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A356" s="40"/>
+      <c r="A356" s="62">
+        <v>46023</v>
+      </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
       <c r="D356" s="39"/>
@@ -9966,7 +10371,9 @@
       <c r="K356" s="20"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A357" s="40"/>
+      <c r="A357" s="62">
+        <v>46054</v>
+      </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
       <c r="D357" s="39"/>
@@ -9982,7 +10389,9 @@
       <c r="K357" s="20"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A358" s="40"/>
+      <c r="A358" s="62">
+        <v>46082</v>
+      </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
       <c r="D358" s="39"/>
@@ -9998,7 +10407,9 @@
       <c r="K358" s="20"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A359" s="40"/>
+      <c r="A359" s="62">
+        <v>46113</v>
+      </c>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
       <c r="D359" s="39"/>
@@ -10014,7 +10425,9 @@
       <c r="K359" s="20"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A360" s="40"/>
+      <c r="A360" s="62">
+        <v>46143</v>
+      </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
       <c r="D360" s="39"/>
@@ -10030,7 +10443,9 @@
       <c r="K360" s="20"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A361" s="40"/>
+      <c r="A361" s="62">
+        <v>46174</v>
+      </c>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
       <c r="D361" s="39"/>
@@ -10046,7 +10461,9 @@
       <c r="K361" s="20"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A362" s="40"/>
+      <c r="A362" s="62">
+        <v>46204</v>
+      </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
       <c r="D362" s="39"/>
@@ -10062,7 +10479,9 @@
       <c r="K362" s="20"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A363" s="40"/>
+      <c r="A363" s="62">
+        <v>46235</v>
+      </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
       <c r="D363" s="39"/>
@@ -10078,7 +10497,9 @@
       <c r="K363" s="20"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A364" s="40"/>
+      <c r="A364" s="62">
+        <v>46266</v>
+      </c>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
       <c r="D364" s="39"/>
@@ -10094,7 +10515,9 @@
       <c r="K364" s="20"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A365" s="40"/>
+      <c r="A365" s="62">
+        <v>46296</v>
+      </c>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
       <c r="D365" s="39"/>
@@ -10110,7 +10533,9 @@
       <c r="K365" s="20"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A366" s="40"/>
+      <c r="A366" s="62">
+        <v>46327</v>
+      </c>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
       <c r="D366" s="39"/>
@@ -10126,7 +10551,9 @@
       <c r="K366" s="20"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A367" s="40"/>
+      <c r="A367" s="62">
+        <v>46357</v>
+      </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
       <c r="D367" s="39"/>
@@ -10142,7 +10569,9 @@
       <c r="K367" s="20"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A368" s="40"/>
+      <c r="A368" s="62">
+        <v>46388</v>
+      </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
       <c r="D368" s="39"/>
@@ -10302,20 +10731,132 @@
       <c r="K377" s="20"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A378" s="41"/>
-      <c r="B378" s="15"/>
-      <c r="C378" s="42"/>
-      <c r="D378" s="43"/>
+      <c r="A378" s="40"/>
+      <c r="B378" s="20"/>
+      <c r="C378" s="13"/>
+      <c r="D378" s="39"/>
       <c r="E378" s="9"/>
-      <c r="F378" s="15"/>
-      <c r="G378" s="42" t="str">
+      <c r="F378" s="20"/>
+      <c r="G378" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H378" s="43"/>
+      <c r="H378" s="39"/>
       <c r="I378" s="9"/>
-      <c r="J378" s="12"/>
-      <c r="K378" s="15"/>
+      <c r="J378" s="11"/>
+      <c r="K378" s="20"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A379" s="40"/>
+      <c r="B379" s="20"/>
+      <c r="C379" s="13"/>
+      <c r="D379" s="39"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="20"/>
+      <c r="G379" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H379" s="39"/>
+      <c r="I379" s="9"/>
+      <c r="J379" s="11"/>
+      <c r="K379" s="20"/>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A380" s="40"/>
+      <c r="B380" s="20"/>
+      <c r="C380" s="13"/>
+      <c r="D380" s="39"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="20"/>
+      <c r="G380" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H380" s="39"/>
+      <c r="I380" s="9"/>
+      <c r="J380" s="11"/>
+      <c r="K380" s="20"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A381" s="40"/>
+      <c r="B381" s="20"/>
+      <c r="C381" s="13"/>
+      <c r="D381" s="39"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="20"/>
+      <c r="G381" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H381" s="39"/>
+      <c r="I381" s="9"/>
+      <c r="J381" s="11"/>
+      <c r="K381" s="20"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A382" s="40"/>
+      <c r="B382" s="20"/>
+      <c r="C382" s="13"/>
+      <c r="D382" s="39"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="20"/>
+      <c r="G382" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H382" s="39"/>
+      <c r="I382" s="9"/>
+      <c r="J382" s="11"/>
+      <c r="K382" s="20"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A383" s="40"/>
+      <c r="B383" s="20"/>
+      <c r="C383" s="13"/>
+      <c r="D383" s="39"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="20"/>
+      <c r="G383" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H383" s="39"/>
+      <c r="I383" s="9"/>
+      <c r="J383" s="11"/>
+      <c r="K383" s="20"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A384" s="40"/>
+      <c r="B384" s="20"/>
+      <c r="C384" s="13"/>
+      <c r="D384" s="39"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="20"/>
+      <c r="G384" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H384" s="39"/>
+      <c r="I384" s="9"/>
+      <c r="J384" s="11"/>
+      <c r="K384" s="20"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A385" s="41"/>
+      <c r="B385" s="15"/>
+      <c r="C385" s="42"/>
+      <c r="D385" s="43"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="15"/>
+      <c r="G385" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H385" s="43"/>
+      <c r="I385" s="9"/>
+      <c r="J385" s="12"/>
+      <c r="K385" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10331,11 +10872,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10358,12 +10899,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10381,17 +10922,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -10470,12 +11011,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/OJT/NEW DONE/DIGO, VIRGILIO.xlsx
+++ b/REGULAR/OJT/NEW DONE/DIGO, VIRGILIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00275ED2-C9B1-48E8-8612-0B363B7C76BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8360D96B-417E-4186-8451-43B1D9BFDB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -574,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,9 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3122,9 +3119,9 @@
   <dimension ref="A2:K385"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A313" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="H321" sqref="H321"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8373,7 +8370,7 @@
       <c r="K254" s="49"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A255" s="62">
+      <c r="A255" s="23">
         <v>43101</v>
       </c>
       <c r="B255" s="20"/>
@@ -8397,7 +8394,7 @@
       <c r="K255" s="20"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A256" s="62">
+      <c r="A256" s="23">
         <v>43132</v>
       </c>
       <c r="B256" s="20"/>
@@ -8417,7 +8414,7 @@
       <c r="K256" s="20"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A257" s="62">
+      <c r="A257" s="23">
         <v>43160</v>
       </c>
       <c r="B257" s="20"/>
@@ -8437,7 +8434,7 @@
       <c r="K257" s="20"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A258" s="62">
+      <c r="A258" s="23">
         <v>43191</v>
       </c>
       <c r="B258" s="20"/>
@@ -8457,7 +8454,7 @@
       <c r="K258" s="20"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A259" s="62">
+      <c r="A259" s="23">
         <v>43221</v>
       </c>
       <c r="B259" s="20"/>
@@ -8477,7 +8474,7 @@
       <c r="K259" s="20"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A260" s="62">
+      <c r="A260" s="23">
         <v>43252</v>
       </c>
       <c r="B260" s="20"/>
@@ -8497,7 +8494,7 @@
       <c r="K260" s="20"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A261" s="62">
+      <c r="A261" s="23">
         <v>43282</v>
       </c>
       <c r="B261" s="20"/>
@@ -8517,7 +8514,7 @@
       <c r="K261" s="20"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A262" s="62">
+      <c r="A262" s="23">
         <v>43313</v>
       </c>
       <c r="B262" s="20"/>
@@ -8537,7 +8534,7 @@
       <c r="K262" s="20"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A263" s="62">
+      <c r="A263" s="23">
         <v>43344</v>
       </c>
       <c r="B263" s="20"/>
@@ -8557,7 +8554,7 @@
       <c r="K263" s="20"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A264" s="62">
+      <c r="A264" s="23">
         <v>43374</v>
       </c>
       <c r="B264" s="20"/>
@@ -8577,7 +8574,7 @@
       <c r="K264" s="20"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A265" s="62">
+      <c r="A265" s="23">
         <v>43405</v>
       </c>
       <c r="B265" s="20"/>
@@ -8597,7 +8594,7 @@
       <c r="K265" s="20"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A266" s="62">
+      <c r="A266" s="23">
         <v>43435</v>
       </c>
       <c r="B266" s="20" t="s">
@@ -8639,7 +8636,7 @@
       <c r="K267" s="20"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A268" s="62">
+      <c r="A268" s="23">
         <v>43466</v>
       </c>
       <c r="B268" s="20"/>
@@ -8659,7 +8656,7 @@
       <c r="K268" s="20"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A269" s="62">
+      <c r="A269" s="23">
         <v>43497</v>
       </c>
       <c r="B269" s="20"/>
@@ -8683,7 +8680,7 @@
       <c r="K269" s="20"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A270" s="62">
+      <c r="A270" s="23">
         <v>43525</v>
       </c>
       <c r="B270" s="20"/>
@@ -8703,7 +8700,7 @@
       <c r="K270" s="20"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A271" s="62">
+      <c r="A271" s="23">
         <v>43556</v>
       </c>
       <c r="B271" s="20"/>
@@ -8723,7 +8720,7 @@
       <c r="K271" s="20"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A272" s="62">
+      <c r="A272" s="23">
         <v>43586</v>
       </c>
       <c r="B272" s="20"/>
@@ -8743,7 +8740,7 @@
       <c r="K272" s="20"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A273" s="62">
+      <c r="A273" s="23">
         <v>43617</v>
       </c>
       <c r="B273" s="20"/>
@@ -8763,7 +8760,7 @@
       <c r="K273" s="20"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A274" s="62">
+      <c r="A274" s="23">
         <v>43647</v>
       </c>
       <c r="B274" s="20"/>
@@ -8783,7 +8780,7 @@
       <c r="K274" s="20"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A275" s="62">
+      <c r="A275" s="23">
         <v>43678</v>
       </c>
       <c r="B275" s="20"/>
@@ -8803,7 +8800,7 @@
       <c r="K275" s="20"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A276" s="62">
+      <c r="A276" s="23">
         <v>43709</v>
       </c>
       <c r="B276" s="20"/>
@@ -8823,7 +8820,7 @@
       <c r="K276" s="20"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A277" s="62">
+      <c r="A277" s="23">
         <v>43739</v>
       </c>
       <c r="B277" s="20"/>
@@ -8843,7 +8840,7 @@
       <c r="K277" s="20"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A278" s="62">
+      <c r="A278" s="23">
         <v>43770</v>
       </c>
       <c r="B278" s="20"/>
@@ -8863,7 +8860,7 @@
       <c r="K278" s="20"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A279" s="62">
+      <c r="A279" s="23">
         <v>43800</v>
       </c>
       <c r="B279" s="20" t="s">
@@ -8905,7 +8902,7 @@
       <c r="K280" s="20"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A281" s="62">
+      <c r="A281" s="23">
         <v>43831</v>
       </c>
       <c r="B281" s="20"/>
@@ -8925,7 +8922,7 @@
       <c r="K281" s="20"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A282" s="62">
+      <c r="A282" s="23">
         <v>43862</v>
       </c>
       <c r="B282" s="20"/>
@@ -8945,7 +8942,7 @@
       <c r="K282" s="20"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A283" s="62">
+      <c r="A283" s="23">
         <v>43891</v>
       </c>
       <c r="B283" s="20"/>
@@ -8969,7 +8966,7 @@
       <c r="K283" s="20"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A284" s="62">
+      <c r="A284" s="23">
         <v>43922</v>
       </c>
       <c r="B284" s="20"/>
@@ -8989,7 +8986,7 @@
       <c r="K284" s="20"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A285" s="62">
+      <c r="A285" s="23">
         <v>43952</v>
       </c>
       <c r="B285" s="20"/>
@@ -9009,7 +9006,7 @@
       <c r="K285" s="20"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A286" s="62">
+      <c r="A286" s="23">
         <v>43983</v>
       </c>
       <c r="B286" s="20"/>
@@ -9029,7 +9026,7 @@
       <c r="K286" s="20"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A287" s="62">
+      <c r="A287" s="23">
         <v>44013</v>
       </c>
       <c r="B287" s="20"/>
@@ -9049,7 +9046,7 @@
       <c r="K287" s="20"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A288" s="62">
+      <c r="A288" s="23">
         <v>44044</v>
       </c>
       <c r="B288" s="20"/>
@@ -9069,7 +9066,7 @@
       <c r="K288" s="20"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A289" s="62">
+      <c r="A289" s="23">
         <v>44075</v>
       </c>
       <c r="B289" s="20"/>
@@ -9089,7 +9086,7 @@
       <c r="K289" s="20"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A290" s="62">
+      <c r="A290" s="23">
         <v>44105</v>
       </c>
       <c r="B290" s="20"/>
@@ -9109,7 +9106,7 @@
       <c r="K290" s="20"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A291" s="62">
+      <c r="A291" s="23">
         <v>44136</v>
       </c>
       <c r="B291" s="20"/>
@@ -9129,7 +9126,7 @@
       <c r="K291" s="20"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A292" s="62">
+      <c r="A292" s="23">
         <v>44166</v>
       </c>
       <c r="B292" s="20" t="s">
@@ -9171,7 +9168,7 @@
       <c r="K293" s="20"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A294" s="62">
+      <c r="A294" s="23">
         <v>44197</v>
       </c>
       <c r="B294" s="20"/>
@@ -9191,7 +9188,7 @@
       <c r="K294" s="20"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A295" s="62">
+      <c r="A295" s="23">
         <v>44228</v>
       </c>
       <c r="B295" s="20"/>
@@ -9211,7 +9208,7 @@
       <c r="K295" s="20"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A296" s="62">
+      <c r="A296" s="23">
         <v>44256</v>
       </c>
       <c r="B296" s="20"/>
@@ -9231,7 +9228,7 @@
       <c r="K296" s="20"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A297" s="62">
+      <c r="A297" s="23">
         <v>44287</v>
       </c>
       <c r="B297" s="20"/>
@@ -9251,7 +9248,7 @@
       <c r="K297" s="20"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A298" s="62">
+      <c r="A298" s="23">
         <v>44317</v>
       </c>
       <c r="B298" s="20"/>
@@ -9271,7 +9268,7 @@
       <c r="K298" s="20"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A299" s="62">
+      <c r="A299" s="23">
         <v>44348</v>
       </c>
       <c r="B299" s="20"/>
@@ -9291,7 +9288,7 @@
       <c r="K299" s="20"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A300" s="62">
+      <c r="A300" s="23">
         <v>44378</v>
       </c>
       <c r="B300" s="20"/>
@@ -9311,7 +9308,7 @@
       <c r="K300" s="20"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A301" s="62">
+      <c r="A301" s="23">
         <v>44409</v>
       </c>
       <c r="B301" s="20"/>
@@ -9331,7 +9328,7 @@
       <c r="K301" s="20"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A302" s="62">
+      <c r="A302" s="23">
         <v>44440</v>
       </c>
       <c r="B302" s="20"/>
@@ -9351,7 +9348,7 @@
       <c r="K302" s="20"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A303" s="62">
+      <c r="A303" s="23">
         <v>44470</v>
       </c>
       <c r="B303" s="20"/>
@@ -9371,7 +9368,7 @@
       <c r="K303" s="20"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A304" s="62">
+      <c r="A304" s="23">
         <v>44501</v>
       </c>
       <c r="B304" s="20"/>
@@ -9391,7 +9388,7 @@
       <c r="K304" s="20"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A305" s="62">
+      <c r="A305" s="23">
         <v>44531</v>
       </c>
       <c r="B305" s="20" t="s">
@@ -9433,7 +9430,7 @@
       <c r="K306" s="20"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A307" s="62">
+      <c r="A307" s="23">
         <v>44562</v>
       </c>
       <c r="B307" s="20"/>
@@ -9453,7 +9450,7 @@
       <c r="K307" s="20"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A308" s="62">
+      <c r="A308" s="23">
         <v>44593</v>
       </c>
       <c r="B308" s="20"/>
@@ -9473,7 +9470,7 @@
       <c r="K308" s="20"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A309" s="62">
+      <c r="A309" s="23">
         <v>44621</v>
       </c>
       <c r="B309" s="20"/>
@@ -9493,7 +9490,7 @@
       <c r="K309" s="20"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A310" s="62">
+      <c r="A310" s="23">
         <v>44652</v>
       </c>
       <c r="B310" s="20"/>
@@ -9513,7 +9510,7 @@
       <c r="K310" s="20"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A311" s="62">
+      <c r="A311" s="23">
         <v>44682</v>
       </c>
       <c r="B311" s="20"/>
@@ -9533,7 +9530,7 @@
       <c r="K311" s="20"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A312" s="62">
+      <c r="A312" s="23">
         <v>44713</v>
       </c>
       <c r="B312" s="20"/>
@@ -9553,7 +9550,7 @@
       <c r="K312" s="20"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A313" s="62">
+      <c r="A313" s="23">
         <v>44743</v>
       </c>
       <c r="B313" s="20"/>
@@ -9573,7 +9570,7 @@
       <c r="K313" s="20"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A314" s="62">
+      <c r="A314" s="23">
         <v>44774</v>
       </c>
       <c r="B314" s="20"/>
@@ -9593,7 +9590,7 @@
       <c r="K314" s="20"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A315" s="62">
+      <c r="A315" s="23">
         <v>44805</v>
       </c>
       <c r="B315" s="20"/>
@@ -9613,7 +9610,7 @@
       <c r="K315" s="20"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A316" s="62">
+      <c r="A316" s="23">
         <v>44835</v>
       </c>
       <c r="B316" s="20"/>
@@ -9633,7 +9630,7 @@
       <c r="K316" s="20"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A317" s="62">
+      <c r="A317" s="23">
         <v>44866</v>
       </c>
       <c r="B317" s="20"/>
@@ -9653,7 +9650,7 @@
       <c r="K317" s="20"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A318" s="62">
+      <c r="A318" s="23">
         <v>44896</v>
       </c>
       <c r="B318" s="20" t="s">
@@ -9695,7 +9692,7 @@
       <c r="K319" s="20"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A320" s="62">
+      <c r="A320" s="23">
         <v>44927</v>
       </c>
       <c r="B320" s="20"/>
@@ -9715,7 +9712,7 @@
       <c r="K320" s="20"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A321" s="62">
+      <c r="A321" s="23">
         <v>44958</v>
       </c>
       <c r="B321" s="20" t="s">
@@ -9741,7 +9738,7 @@
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A322" s="62">
+      <c r="A322" s="23">
         <v>44986</v>
       </c>
       <c r="B322" s="20"/>
@@ -9759,7 +9756,7 @@
       <c r="K322" s="20"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A323" s="62">
+      <c r="A323" s="23">
         <v>45017</v>
       </c>
       <c r="B323" s="20"/>
@@ -9777,7 +9774,7 @@
       <c r="K323" s="20"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A324" s="62">
+      <c r="A324" s="23">
         <v>45047</v>
       </c>
       <c r="B324" s="20"/>
@@ -9795,7 +9792,7 @@
       <c r="K324" s="20"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A325" s="62">
+      <c r="A325" s="23">
         <v>45078</v>
       </c>
       <c r="B325" s="20"/>
@@ -9813,7 +9810,7 @@
       <c r="K325" s="20"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A326" s="62">
+      <c r="A326" s="23">
         <v>45108</v>
       </c>
       <c r="B326" s="20"/>
@@ -9831,7 +9828,7 @@
       <c r="K326" s="20"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A327" s="62">
+      <c r="A327" s="23">
         <v>45139</v>
       </c>
       <c r="B327" s="20"/>
@@ -9849,7 +9846,7 @@
       <c r="K327" s="20"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A328" s="62">
+      <c r="A328" s="23">
         <v>45170</v>
       </c>
       <c r="B328" s="20"/>
@@ -9867,7 +9864,7 @@
       <c r="K328" s="20"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A329" s="62">
+      <c r="A329" s="23">
         <v>45200</v>
       </c>
       <c r="B329" s="20"/>
@@ -9885,7 +9882,7 @@
       <c r="K329" s="20"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A330" s="62">
+      <c r="A330" s="23">
         <v>45231</v>
       </c>
       <c r="B330" s="20"/>
@@ -9903,7 +9900,7 @@
       <c r="K330" s="20"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A331" s="62">
+      <c r="A331" s="23">
         <v>45261</v>
       </c>
       <c r="B331" s="20"/>
@@ -9921,7 +9918,7 @@
       <c r="K331" s="20"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A332" s="62">
+      <c r="A332" s="23">
         <v>45292</v>
       </c>
       <c r="B332" s="20"/>
@@ -9939,7 +9936,7 @@
       <c r="K332" s="20"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A333" s="62">
+      <c r="A333" s="23">
         <v>45323</v>
       </c>
       <c r="B333" s="20"/>
@@ -9957,7 +9954,7 @@
       <c r="K333" s="20"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A334" s="62">
+      <c r="A334" s="23">
         <v>45352</v>
       </c>
       <c r="B334" s="20"/>
@@ -9975,7 +9972,7 @@
       <c r="K334" s="20"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A335" s="62">
+      <c r="A335" s="23">
         <v>45383</v>
       </c>
       <c r="B335" s="20"/>
@@ -9993,7 +9990,7 @@
       <c r="K335" s="20"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A336" s="62">
+      <c r="A336" s="23">
         <v>45413</v>
       </c>
       <c r="B336" s="20"/>
@@ -10011,7 +10008,7 @@
       <c r="K336" s="20"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A337" s="62">
+      <c r="A337" s="23">
         <v>45444</v>
       </c>
       <c r="B337" s="20"/>
@@ -10029,7 +10026,7 @@
       <c r="K337" s="20"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A338" s="62">
+      <c r="A338" s="23">
         <v>45474</v>
       </c>
       <c r="B338" s="20"/>
@@ -10047,7 +10044,7 @@
       <c r="K338" s="20"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A339" s="62">
+      <c r="A339" s="23">
         <v>45505</v>
       </c>
       <c r="B339" s="20"/>
@@ -10065,7 +10062,7 @@
       <c r="K339" s="20"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A340" s="62">
+      <c r="A340" s="23">
         <v>45536</v>
       </c>
       <c r="B340" s="20"/>
@@ -10083,7 +10080,7 @@
       <c r="K340" s="20"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A341" s="62">
+      <c r="A341" s="23">
         <v>45566</v>
       </c>
       <c r="B341" s="20"/>
@@ -10101,7 +10098,7 @@
       <c r="K341" s="20"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A342" s="62">
+      <c r="A342" s="23">
         <v>45597</v>
       </c>
       <c r="B342" s="20"/>
@@ -10119,7 +10116,7 @@
       <c r="K342" s="20"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A343" s="62">
+      <c r="A343" s="23">
         <v>45627</v>
       </c>
       <c r="B343" s="20"/>
@@ -10137,7 +10134,7 @@
       <c r="K343" s="20"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A344" s="62">
+      <c r="A344" s="23">
         <v>45658</v>
       </c>
       <c r="B344" s="20"/>
@@ -10155,7 +10152,7 @@
       <c r="K344" s="20"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A345" s="62">
+      <c r="A345" s="23">
         <v>45689</v>
       </c>
       <c r="B345" s="20"/>
@@ -10173,7 +10170,7 @@
       <c r="K345" s="20"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A346" s="62">
+      <c r="A346" s="23">
         <v>45717</v>
       </c>
       <c r="B346" s="20"/>
@@ -10191,7 +10188,7 @@
       <c r="K346" s="20"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A347" s="62">
+      <c r="A347" s="23">
         <v>45748</v>
       </c>
       <c r="B347" s="20"/>
@@ -10209,7 +10206,7 @@
       <c r="K347" s="20"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A348" s="62">
+      <c r="A348" s="23">
         <v>45778</v>
       </c>
       <c r="B348" s="20"/>
@@ -10227,7 +10224,7 @@
       <c r="K348" s="20"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A349" s="62">
+      <c r="A349" s="23">
         <v>45809</v>
       </c>
       <c r="B349" s="20"/>
@@ -10245,7 +10242,7 @@
       <c r="K349" s="20"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A350" s="62">
+      <c r="A350" s="23">
         <v>45839</v>
       </c>
       <c r="B350" s="20"/>
@@ -10263,7 +10260,7 @@
       <c r="K350" s="20"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A351" s="62">
+      <c r="A351" s="23">
         <v>45870</v>
       </c>
       <c r="B351" s="20"/>
@@ -10281,7 +10278,7 @@
       <c r="K351" s="20"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A352" s="62">
+      <c r="A352" s="23">
         <v>45901</v>
       </c>
       <c r="B352" s="20"/>
@@ -10299,7 +10296,7 @@
       <c r="K352" s="20"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A353" s="62">
+      <c r="A353" s="23">
         <v>45931</v>
       </c>
       <c r="B353" s="20"/>
@@ -10317,7 +10314,7 @@
       <c r="K353" s="20"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A354" s="62">
+      <c r="A354" s="23">
         <v>45962</v>
       </c>
       <c r="B354" s="20"/>
@@ -10335,7 +10332,7 @@
       <c r="K354" s="20"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A355" s="62">
+      <c r="A355" s="23">
         <v>45992</v>
       </c>
       <c r="B355" s="20"/>
@@ -10353,7 +10350,7 @@
       <c r="K355" s="20"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A356" s="62">
+      <c r="A356" s="23">
         <v>46023</v>
       </c>
       <c r="B356" s="20"/>
@@ -10371,7 +10368,7 @@
       <c r="K356" s="20"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A357" s="62">
+      <c r="A357" s="23">
         <v>46054</v>
       </c>
       <c r="B357" s="20"/>
@@ -10389,7 +10386,7 @@
       <c r="K357" s="20"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A358" s="62">
+      <c r="A358" s="23">
         <v>46082</v>
       </c>
       <c r="B358" s="20"/>
@@ -10407,7 +10404,7 @@
       <c r="K358" s="20"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A359" s="62">
+      <c r="A359" s="23">
         <v>46113</v>
       </c>
       <c r="B359" s="20"/>
@@ -10425,7 +10422,7 @@
       <c r="K359" s="20"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A360" s="62">
+      <c r="A360" s="23">
         <v>46143</v>
       </c>
       <c r="B360" s="20"/>
@@ -10443,7 +10440,7 @@
       <c r="K360" s="20"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A361" s="62">
+      <c r="A361" s="23">
         <v>46174</v>
       </c>
       <c r="B361" s="20"/>
@@ -10461,7 +10458,7 @@
       <c r="K361" s="20"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A362" s="62">
+      <c r="A362" s="23">
         <v>46204</v>
       </c>
       <c r="B362" s="20"/>
@@ -10479,7 +10476,7 @@
       <c r="K362" s="20"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A363" s="62">
+      <c r="A363" s="23">
         <v>46235</v>
       </c>
       <c r="B363" s="20"/>
@@ -10497,7 +10494,7 @@
       <c r="K363" s="20"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A364" s="62">
+      <c r="A364" s="23">
         <v>46266</v>
       </c>
       <c r="B364" s="20"/>
@@ -10515,7 +10512,7 @@
       <c r="K364" s="20"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A365" s="62">
+      <c r="A365" s="23">
         <v>46296</v>
       </c>
       <c r="B365" s="20"/>
@@ -10533,7 +10530,7 @@
       <c r="K365" s="20"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A366" s="62">
+      <c r="A366" s="23">
         <v>46327</v>
       </c>
       <c r="B366" s="20"/>
@@ -10551,7 +10548,7 @@
       <c r="K366" s="20"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A367" s="62">
+      <c r="A367" s="23">
         <v>46357</v>
       </c>
       <c r="B367" s="20"/>
@@ -10569,7 +10566,7 @@
       <c r="K367" s="20"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A368" s="62">
+      <c r="A368" s="23">
         <v>46388</v>
       </c>
       <c r="B368" s="20"/>
@@ -10904,7 +10901,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/REGULAR/OJT/NEW DONE/DIGO, VIRGILIO.xlsx
+++ b/REGULAR/OJT/NEW DONE/DIGO, VIRGILIO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8360D96B-417E-4186-8451-43B1D9BFDB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="103">
   <si>
     <t>PERIOD</t>
   </si>
@@ -339,11 +338,17 @@
   <si>
     <t>2/8-28/2023</t>
   </si>
+  <si>
+    <t>SL(21-0-0)</t>
+  </si>
+  <si>
+    <t>6/2-7/3/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1203,7 +1208,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1246,7 +1251,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,7 +1315,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,7 +1375,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1441,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1504,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1602,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1661,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,7 +1726,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1769,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1844,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2030,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2096,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2154,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2220,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2276,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2351,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2394,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2460,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2516,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2614,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,7 +2677,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,25 +2743,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K385" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K338" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2768,13 +2773,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2783,14 +2788,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3094,7 +3099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3104,7 +3109,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3112,34 +3117,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K385"/>
+  <dimension ref="A2:K338"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A4" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A312" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="K325" sqref="K325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3160,7 +3165,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3180,7 +3185,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3202,7 +3207,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3210,7 +3215,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3223,7 +3228,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3240,7 +3245,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3275,7 +3280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3294,12 +3299,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>487.75</v>
+        <v>466.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20" t="s">
         <v>42</v>
@@ -3321,7 +3326,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="20" t="s">
         <v>43</v>
@@ -3339,7 +3344,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>44</v>
       </c>
@@ -3359,7 +3364,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35442</v>
       </c>
@@ -3383,7 +3388,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>46</v>
       </c>
@@ -3401,7 +3406,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>47</v>
       </c>
@@ -3425,7 +3430,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>48</v>
       </c>
@@ -3443,7 +3448,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>47</v>
       </c>
@@ -3467,7 +3472,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>49</v>
       </c>
@@ -3485,7 +3490,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36526</v>
       </c>
@@ -3505,7 +3510,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>36557</v>
       </c>
@@ -3525,7 +3530,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36586</v>
       </c>
@@ -3545,7 +3550,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36617</v>
       </c>
@@ -3565,7 +3570,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>36647</v>
       </c>
@@ -3585,7 +3590,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36678</v>
       </c>
@@ -3605,7 +3610,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36708</v>
       </c>
@@ -3625,7 +3630,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36739</v>
       </c>
@@ -3645,7 +3650,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36770</v>
       </c>
@@ -3671,7 +3676,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36800</v>
       </c>
@@ -3691,7 +3696,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36831</v>
       </c>
@@ -3715,7 +3720,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>36861</v>
       </c>
@@ -3735,7 +3740,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>52</v>
       </c>
@@ -3757,7 +3762,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36892</v>
       </c>
@@ -3777,7 +3782,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36923</v>
       </c>
@@ -3797,7 +3802,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36951</v>
       </c>
@@ -3817,7 +3822,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36982</v>
       </c>
@@ -3837,7 +3842,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>37012</v>
       </c>
@@ -3857,7 +3862,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>37043</v>
       </c>
@@ -3877,7 +3882,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>37073</v>
       </c>
@@ -3897,7 +3902,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>37104</v>
       </c>
@@ -3917,7 +3922,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>37135</v>
       </c>
@@ -3937,7 +3942,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>37165</v>
       </c>
@@ -3957,7 +3962,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>37196</v>
       </c>
@@ -3977,7 +3982,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>37226</v>
       </c>
@@ -4001,7 +4006,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>53</v>
       </c>
@@ -4023,7 +4028,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>37257</v>
       </c>
@@ -4043,7 +4048,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>37288</v>
       </c>
@@ -4063,7 +4068,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>37316</v>
       </c>
@@ -4083,7 +4088,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>37347</v>
       </c>
@@ -4103,7 +4108,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>37377</v>
       </c>
@@ -4123,7 +4128,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>37408</v>
       </c>
@@ -4143,7 +4148,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>37438</v>
       </c>
@@ -4163,7 +4168,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>37469</v>
       </c>
@@ -4183,7 +4188,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>37500</v>
       </c>
@@ -4203,7 +4208,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37530</v>
       </c>
@@ -4223,7 +4228,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>37561</v>
       </c>
@@ -4243,7 +4248,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>37591</v>
       </c>
@@ -4267,7 +4272,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>54</v>
       </c>
@@ -4289,7 +4294,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>37622</v>
       </c>
@@ -4309,7 +4314,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37653</v>
       </c>
@@ -4329,7 +4334,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37681</v>
       </c>
@@ -4349,7 +4354,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37712</v>
       </c>
@@ -4369,7 +4374,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37742</v>
       </c>
@@ -4389,7 +4394,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37773</v>
       </c>
@@ -4409,7 +4414,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37803</v>
       </c>
@@ -4429,7 +4434,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>37834</v>
       </c>
@@ -4449,7 +4454,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37865</v>
       </c>
@@ -4469,7 +4474,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37895</v>
       </c>
@@ -4489,7 +4494,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37926</v>
       </c>
@@ -4509,7 +4514,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37956</v>
       </c>
@@ -4533,7 +4538,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>55</v>
       </c>
@@ -4551,7 +4556,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37987</v>
       </c>
@@ -4571,7 +4576,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>38018</v>
       </c>
@@ -4591,7 +4596,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>38047</v>
       </c>
@@ -4611,7 +4616,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>38078</v>
       </c>
@@ -4631,7 +4636,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>38108</v>
       </c>
@@ -4651,7 +4656,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>38139</v>
       </c>
@@ -4671,7 +4676,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>38169</v>
       </c>
@@ -4691,7 +4696,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>38200</v>
       </c>
@@ -4711,7 +4716,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>38231</v>
       </c>
@@ -4731,7 +4736,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>38261</v>
       </c>
@@ -4751,7 +4756,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>38292</v>
       </c>
@@ -4777,7 +4782,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>38322</v>
       </c>
@@ -4801,7 +4806,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>56</v>
       </c>
@@ -4823,7 +4828,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>38353</v>
       </c>
@@ -4843,7 +4848,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>38384</v>
       </c>
@@ -4863,7 +4868,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>38412</v>
       </c>
@@ -4883,7 +4888,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>38443</v>
       </c>
@@ -4903,7 +4908,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>38473</v>
       </c>
@@ -4923,7 +4928,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>38504</v>
       </c>
@@ -4943,7 +4948,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>38534</v>
       </c>
@@ -4963,7 +4968,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>38565</v>
       </c>
@@ -4983,7 +4988,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>38596</v>
       </c>
@@ -5003,7 +5008,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>38626</v>
       </c>
@@ -5023,7 +5028,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>38657</v>
       </c>
@@ -5049,7 +5054,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>38687</v>
       </c>
@@ -5073,7 +5078,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
         <v>57</v>
       </c>
@@ -5095,7 +5100,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>38718</v>
       </c>
@@ -5115,7 +5120,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>38749</v>
       </c>
@@ -5135,7 +5140,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>38777</v>
       </c>
@@ -5155,7 +5160,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>38808</v>
       </c>
@@ -5175,7 +5180,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>38838</v>
       </c>
@@ -5195,7 +5200,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>38869</v>
       </c>
@@ -5219,7 +5224,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>38899</v>
       </c>
@@ -5239,7 +5244,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38930</v>
       </c>
@@ -5263,7 +5268,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>38961</v>
       </c>
@@ -5287,7 +5292,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38991</v>
       </c>
@@ -5309,7 +5314,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>39022</v>
       </c>
@@ -5333,7 +5338,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>39052</v>
       </c>
@@ -5357,7 +5362,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="48" t="s">
         <v>58</v>
       </c>
@@ -5379,7 +5384,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>39083</v>
       </c>
@@ -5399,7 +5404,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>39114</v>
       </c>
@@ -5419,7 +5424,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>39142</v>
       </c>
@@ -5439,7 +5444,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>39173</v>
       </c>
@@ -5459,7 +5464,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>39203</v>
       </c>
@@ -5479,7 +5484,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>39234</v>
       </c>
@@ -5499,7 +5504,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>39264</v>
       </c>
@@ -5519,7 +5524,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>39295</v>
       </c>
@@ -5539,7 +5544,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>39326</v>
       </c>
@@ -5559,7 +5564,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>39356</v>
       </c>
@@ -5579,7 +5584,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>39387</v>
       </c>
@@ -5599,7 +5604,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>39417</v>
       </c>
@@ -5623,7 +5628,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>66</v>
       </c>
@@ -5645,7 +5650,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>39448</v>
       </c>
@@ -5665,7 +5670,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>39479</v>
       </c>
@@ -5685,7 +5690,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>39508</v>
       </c>
@@ -5705,7 +5710,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>39539</v>
       </c>
@@ -5725,7 +5730,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>39569</v>
       </c>
@@ -5745,7 +5750,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>39600</v>
       </c>
@@ -5765,7 +5770,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>39630</v>
       </c>
@@ -5785,7 +5790,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>39661</v>
       </c>
@@ -5805,7 +5810,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>39692</v>
       </c>
@@ -5825,7 +5830,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>39722</v>
       </c>
@@ -5845,7 +5850,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>39753</v>
       </c>
@@ -5865,7 +5870,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>39783</v>
       </c>
@@ -5889,7 +5894,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>67</v>
       </c>
@@ -5911,7 +5916,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>39814</v>
       </c>
@@ -5931,7 +5936,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>39845</v>
       </c>
@@ -5951,7 +5956,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>39873</v>
       </c>
@@ -5971,7 +5976,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>39904</v>
       </c>
@@ -5991,7 +5996,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>39934</v>
       </c>
@@ -6021,7 +6026,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>39965</v>
       </c>
@@ -6041,7 +6046,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>39995</v>
       </c>
@@ -6067,7 +6072,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>40026</v>
       </c>
@@ -6087,7 +6092,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>40057</v>
       </c>
@@ -6107,7 +6112,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>40087</v>
       </c>
@@ -6127,7 +6132,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>40118</v>
       </c>
@@ -6147,7 +6152,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>40148</v>
       </c>
@@ -6167,7 +6172,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="48" t="s">
         <v>68</v>
       </c>
@@ -6189,7 +6194,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>40179</v>
       </c>
@@ -6209,7 +6214,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>40210</v>
       </c>
@@ -6229,7 +6234,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>40238</v>
       </c>
@@ -6249,7 +6254,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>40269</v>
       </c>
@@ -6269,7 +6274,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>40299</v>
       </c>
@@ -6289,7 +6294,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>40330</v>
       </c>
@@ -6309,7 +6314,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>40360</v>
       </c>
@@ -6329,7 +6334,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>40391</v>
       </c>
@@ -6349,7 +6354,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>40422</v>
       </c>
@@ -6369,7 +6374,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>40452</v>
       </c>
@@ -6389,7 +6394,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>40483</v>
       </c>
@@ -6409,7 +6414,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>40513</v>
       </c>
@@ -6433,7 +6438,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="48" t="s">
         <v>69</v>
       </c>
@@ -6455,7 +6460,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>40544</v>
       </c>
@@ -6475,7 +6480,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>40575</v>
       </c>
@@ -6495,7 +6500,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>40603</v>
       </c>
@@ -6515,7 +6520,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>40634</v>
       </c>
@@ -6535,7 +6540,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>40664</v>
       </c>
@@ -6555,7 +6560,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>40695</v>
       </c>
@@ -6575,7 +6580,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>40725</v>
       </c>
@@ -6595,7 +6600,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>40756</v>
       </c>
@@ -6615,7 +6620,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>40787</v>
       </c>
@@ -6635,7 +6640,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>40817</v>
       </c>
@@ -6655,7 +6660,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>40848</v>
       </c>
@@ -6675,7 +6680,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>40878</v>
       </c>
@@ -6699,7 +6704,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="48" t="s">
         <v>70</v>
       </c>
@@ -6721,7 +6726,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>40909</v>
       </c>
@@ -6741,7 +6746,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>40940</v>
       </c>
@@ -6761,7 +6766,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>40969</v>
       </c>
@@ -6781,7 +6786,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>41000</v>
       </c>
@@ -6801,7 +6806,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>41030</v>
       </c>
@@ -6821,7 +6826,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>41061</v>
       </c>
@@ -6841,7 +6846,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>41091</v>
       </c>
@@ -6861,7 +6866,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>41122</v>
       </c>
@@ -6881,7 +6886,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>41153</v>
       </c>
@@ -6901,7 +6906,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>41183</v>
       </c>
@@ -6921,7 +6926,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>41214</v>
       </c>
@@ -6941,7 +6946,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>41244</v>
       </c>
@@ -6965,7 +6970,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="48" t="s">
         <v>78</v>
       </c>
@@ -6987,7 +6992,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>41275</v>
       </c>
@@ -7007,7 +7012,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>41306</v>
       </c>
@@ -7027,7 +7032,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>41334</v>
       </c>
@@ -7047,7 +7052,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>41365</v>
       </c>
@@ -7067,7 +7072,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>41395</v>
       </c>
@@ -7087,7 +7092,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>41426</v>
       </c>
@@ -7107,7 +7112,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>41456</v>
       </c>
@@ -7127,7 +7132,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>41487</v>
       </c>
@@ -7147,7 +7152,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>41518</v>
       </c>
@@ -7167,7 +7172,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>41548</v>
       </c>
@@ -7187,7 +7192,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>41579</v>
       </c>
@@ -7207,7 +7212,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>41609</v>
       </c>
@@ -7231,7 +7236,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="48" t="s">
         <v>82</v>
       </c>
@@ -7253,7 +7258,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>41640</v>
       </c>
@@ -7273,7 +7278,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>41671</v>
       </c>
@@ -7293,7 +7298,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>41699</v>
       </c>
@@ -7313,7 +7318,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>41730</v>
       </c>
@@ -7333,7 +7338,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>41760</v>
       </c>
@@ -7353,7 +7358,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>41791</v>
       </c>
@@ -7373,7 +7378,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>41821</v>
       </c>
@@ -7393,7 +7398,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>41852</v>
       </c>
@@ -7413,7 +7418,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>41883</v>
       </c>
@@ -7433,7 +7438,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>41913</v>
       </c>
@@ -7453,7 +7458,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>41944</v>
       </c>
@@ -7473,7 +7478,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>41974</v>
       </c>
@@ -7497,7 +7502,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="48" t="s">
         <v>81</v>
       </c>
@@ -7519,7 +7524,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>42005</v>
       </c>
@@ -7539,7 +7544,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>42036</v>
       </c>
@@ -7559,7 +7564,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>42064</v>
       </c>
@@ -7579,7 +7584,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>42095</v>
       </c>
@@ -7599,7 +7604,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>42125</v>
       </c>
@@ -7619,7 +7624,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>42156</v>
       </c>
@@ -7639,7 +7644,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>42186</v>
       </c>
@@ -7659,7 +7664,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>42217</v>
       </c>
@@ -7679,7 +7684,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>42248</v>
       </c>
@@ -7699,7 +7704,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>42278</v>
       </c>
@@ -7719,7 +7724,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>42309</v>
       </c>
@@ -7739,7 +7744,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>42339</v>
       </c>
@@ -7763,7 +7768,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="48" t="s">
         <v>80</v>
       </c>
@@ -7785,7 +7790,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>42370</v>
       </c>
@@ -7805,7 +7810,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>42401</v>
       </c>
@@ -7825,7 +7830,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>42430</v>
       </c>
@@ -7845,7 +7850,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>42461</v>
       </c>
@@ -7865,7 +7870,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>42491</v>
       </c>
@@ -7885,7 +7890,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>42522</v>
       </c>
@@ -7905,7 +7910,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>42552</v>
       </c>
@@ -7925,7 +7930,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>42583</v>
       </c>
@@ -7945,7 +7950,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>42614</v>
       </c>
@@ -7965,7 +7970,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>42644</v>
       </c>
@@ -7985,7 +7990,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>42675</v>
       </c>
@@ -8005,7 +8010,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>42705</v>
       </c>
@@ -8029,7 +8034,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="48" t="s">
         <v>79</v>
       </c>
@@ -8051,7 +8056,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>42736</v>
       </c>
@@ -8071,7 +8076,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>42767</v>
       </c>
@@ -8091,7 +8096,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>42795</v>
       </c>
@@ -8111,7 +8116,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>42826</v>
       </c>
@@ -8131,7 +8136,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>42856</v>
       </c>
@@ -8151,7 +8156,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>42887</v>
       </c>
@@ -8177,7 +8182,7 @@
         <v>42984</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>83</v>
@@ -8199,7 +8204,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>42917</v>
       </c>
@@ -8225,7 +8230,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>42948</v>
       </c>
@@ -8245,7 +8250,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>42979</v>
       </c>
@@ -8265,7 +8270,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>43009</v>
       </c>
@@ -8285,7 +8290,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>43040</v>
       </c>
@@ -8305,7 +8310,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>43070</v>
       </c>
@@ -8331,7 +8336,7 @@
         <v>39153</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>45</v>
@@ -8351,7 +8356,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="49"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="48" t="s">
         <v>93</v>
       </c>
@@ -8369,7 +8374,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="49"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>43101</v>
       </c>
@@ -8393,7 +8398,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>43132</v>
       </c>
@@ -8413,7 +8418,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>43160</v>
       </c>
@@ -8433,7 +8438,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>43191</v>
       </c>
@@ -8453,7 +8458,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>43221</v>
       </c>
@@ -8473,7 +8478,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>43252</v>
       </c>
@@ -8493,7 +8498,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>43282</v>
       </c>
@@ -8513,7 +8518,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>43313</v>
       </c>
@@ -8533,7 +8538,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>43344</v>
       </c>
@@ -8553,7 +8558,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>43374</v>
       </c>
@@ -8573,7 +8578,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>43405</v>
       </c>
@@ -8593,7 +8598,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>43435</v>
       </c>
@@ -8617,7 +8622,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="48" t="s">
         <v>94</v>
       </c>
@@ -8635,7 +8640,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>43466</v>
       </c>
@@ -8655,7 +8660,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>43497</v>
       </c>
@@ -8679,7 +8684,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>43525</v>
       </c>
@@ -8699,7 +8704,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>43556</v>
       </c>
@@ -8719,7 +8724,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <v>43586</v>
       </c>
@@ -8739,7 +8744,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>43617</v>
       </c>
@@ -8759,7 +8764,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>43647</v>
       </c>
@@ -8779,7 +8784,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>43678</v>
       </c>
@@ -8799,7 +8804,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>43709</v>
       </c>
@@ -8819,7 +8824,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <v>43739</v>
       </c>
@@ -8839,7 +8844,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <v>43770</v>
       </c>
@@ -8859,7 +8864,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>43800</v>
       </c>
@@ -8883,7 +8888,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="48" t="s">
         <v>95</v>
       </c>
@@ -8901,7 +8906,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>43831</v>
       </c>
@@ -8921,7 +8926,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>43862</v>
       </c>
@@ -8941,7 +8946,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>43891</v>
       </c>
@@ -8965,7 +8970,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>43922</v>
       </c>
@@ -8985,7 +8990,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>43952</v>
       </c>
@@ -9005,7 +9010,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>43983</v>
       </c>
@@ -9025,7 +9030,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>44013</v>
       </c>
@@ -9045,7 +9050,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>44044</v>
       </c>
@@ -9065,7 +9070,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>44075</v>
       </c>
@@ -9085,7 +9090,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>44105</v>
       </c>
@@ -9105,7 +9110,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>44136</v>
       </c>
@@ -9125,7 +9130,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>44166</v>
       </c>
@@ -9149,7 +9154,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="48" t="s">
         <v>96</v>
       </c>
@@ -9167,7 +9172,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>44197</v>
       </c>
@@ -9187,7 +9192,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>44228</v>
       </c>
@@ -9207,7 +9212,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>44256</v>
       </c>
@@ -9227,7 +9232,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>44287</v>
       </c>
@@ -9247,7 +9252,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>44317</v>
       </c>
@@ -9267,7 +9272,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>44348</v>
       </c>
@@ -9287,7 +9292,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>44378</v>
       </c>
@@ -9307,7 +9312,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>44409</v>
       </c>
@@ -9327,7 +9332,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>44440</v>
       </c>
@@ -9347,7 +9352,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>44470</v>
       </c>
@@ -9367,7 +9372,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <v>44501</v>
       </c>
@@ -9387,7 +9392,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>44531</v>
       </c>
@@ -9411,7 +9416,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="48" t="s">
         <v>97</v>
       </c>
@@ -9429,7 +9434,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>44562</v>
       </c>
@@ -9449,7 +9454,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>44593</v>
       </c>
@@ -9469,7 +9474,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>44621</v>
       </c>
@@ -9489,7 +9494,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>44652</v>
       </c>
@@ -9509,7 +9514,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>44682</v>
       </c>
@@ -9529,7 +9534,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>44713</v>
       </c>
@@ -9549,7 +9554,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>44743</v>
       </c>
@@ -9569,7 +9574,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>44774</v>
       </c>
@@ -9589,7 +9594,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>44805</v>
       </c>
@@ -9609,7 +9614,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>44835</v>
       </c>
@@ -9629,7 +9634,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>44866</v>
       </c>
@@ -9649,7 +9654,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>44896</v>
       </c>
@@ -9673,7 +9678,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="48" t="s">
         <v>98</v>
       </c>
@@ -9691,7 +9696,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <v>44927</v>
       </c>
@@ -9711,7 +9716,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>44958</v>
       </c>
@@ -9737,7 +9742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>44986</v>
       </c>
@@ -9755,7 +9760,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <v>45017</v>
       </c>
@@ -9773,7 +9778,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>45047</v>
       </c>
@@ -9791,11 +9796,13 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <v>45078</v>
       </c>
-      <c r="B325" s="20"/>
+      <c r="B325" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="C325" s="13"/>
       <c r="D325" s="39"/>
       <c r="E325" s="9"/>
@@ -9804,12 +9811,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H325" s="39"/>
+      <c r="H325" s="39">
+        <v>21</v>
+      </c>
       <c r="I325" s="9"/>
       <c r="J325" s="11"/>
-      <c r="K325" s="20"/>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K325" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>45108</v>
       </c>
@@ -9827,7 +9838,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>45139</v>
       </c>
@@ -9845,7 +9856,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <v>45170</v>
       </c>
@@ -9863,7 +9874,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <v>45200</v>
       </c>
@@ -9881,7 +9892,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>45231</v>
       </c>
@@ -9899,7 +9910,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <v>45261</v>
       </c>
@@ -9917,10 +9928,8 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A332" s="23">
-        <v>45292</v>
-      </c>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" s="40"/>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
       <c r="D332" s="39"/>
@@ -9935,10 +9944,8 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A333" s="23">
-        <v>45323</v>
-      </c>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" s="40"/>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
       <c r="D333" s="39"/>
@@ -9953,10 +9960,8 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A334" s="23">
-        <v>45352</v>
-      </c>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" s="40"/>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
       <c r="D334" s="39"/>
@@ -9971,10 +9976,8 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A335" s="23">
-        <v>45383</v>
-      </c>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" s="40"/>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
       <c r="D335" s="39"/>
@@ -9989,10 +9992,8 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A336" s="23">
-        <v>45413</v>
-      </c>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
       <c r="D336" s="39"/>
@@ -10007,10 +10008,8 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A337" s="23">
-        <v>45444</v>
-      </c>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" s="40"/>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
       <c r="D337" s="39"/>
@@ -10025,835 +10024,21 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A338" s="23">
-        <v>45474</v>
-      </c>
-      <c r="B338" s="20"/>
-      <c r="C338" s="13"/>
-      <c r="D338" s="39"/>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" s="41"/>
+      <c r="B338" s="15"/>
+      <c r="C338" s="42"/>
+      <c r="D338" s="43"/>
       <c r="E338" s="9"/>
-      <c r="F338" s="20"/>
-      <c r="G338" s="13" t="str">
+      <c r="F338" s="15"/>
+      <c r="G338" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H338" s="39"/>
+      <c r="H338" s="43"/>
       <c r="I338" s="9"/>
-      <c r="J338" s="11"/>
-      <c r="K338" s="20"/>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A339" s="23">
-        <v>45505</v>
-      </c>
-      <c r="B339" s="20"/>
-      <c r="C339" s="13"/>
-      <c r="D339" s="39"/>
-      <c r="E339" s="9"/>
-      <c r="F339" s="20"/>
-      <c r="G339" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H339" s="39"/>
-      <c r="I339" s="9"/>
-      <c r="J339" s="11"/>
-      <c r="K339" s="20"/>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A340" s="23">
-        <v>45536</v>
-      </c>
-      <c r="B340" s="20"/>
-      <c r="C340" s="13"/>
-      <c r="D340" s="39"/>
-      <c r="E340" s="9"/>
-      <c r="F340" s="20"/>
-      <c r="G340" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H340" s="39"/>
-      <c r="I340" s="9"/>
-      <c r="J340" s="11"/>
-      <c r="K340" s="20"/>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A341" s="23">
-        <v>45566</v>
-      </c>
-      <c r="B341" s="20"/>
-      <c r="C341" s="13"/>
-      <c r="D341" s="39"/>
-      <c r="E341" s="9"/>
-      <c r="F341" s="20"/>
-      <c r="G341" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H341" s="39"/>
-      <c r="I341" s="9"/>
-      <c r="J341" s="11"/>
-      <c r="K341" s="20"/>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A342" s="23">
-        <v>45597</v>
-      </c>
-      <c r="B342" s="20"/>
-      <c r="C342" s="13"/>
-      <c r="D342" s="39"/>
-      <c r="E342" s="9"/>
-      <c r="F342" s="20"/>
-      <c r="G342" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H342" s="39"/>
-      <c r="I342" s="9"/>
-      <c r="J342" s="11"/>
-      <c r="K342" s="20"/>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A343" s="23">
-        <v>45627</v>
-      </c>
-      <c r="B343" s="20"/>
-      <c r="C343" s="13"/>
-      <c r="D343" s="39"/>
-      <c r="E343" s="9"/>
-      <c r="F343" s="20"/>
-      <c r="G343" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H343" s="39"/>
-      <c r="I343" s="9"/>
-      <c r="J343" s="11"/>
-      <c r="K343" s="20"/>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A344" s="23">
-        <v>45658</v>
-      </c>
-      <c r="B344" s="20"/>
-      <c r="C344" s="13"/>
-      <c r="D344" s="39"/>
-      <c r="E344" s="9"/>
-      <c r="F344" s="20"/>
-      <c r="G344" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H344" s="39"/>
-      <c r="I344" s="9"/>
-      <c r="J344" s="11"/>
-      <c r="K344" s="20"/>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A345" s="23">
-        <v>45689</v>
-      </c>
-      <c r="B345" s="20"/>
-      <c r="C345" s="13"/>
-      <c r="D345" s="39"/>
-      <c r="E345" s="9"/>
-      <c r="F345" s="20"/>
-      <c r="G345" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H345" s="39"/>
-      <c r="I345" s="9"/>
-      <c r="J345" s="11"/>
-      <c r="K345" s="20"/>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A346" s="23">
-        <v>45717</v>
-      </c>
-      <c r="B346" s="20"/>
-      <c r="C346" s="13"/>
-      <c r="D346" s="39"/>
-      <c r="E346" s="9"/>
-      <c r="F346" s="20"/>
-      <c r="G346" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H346" s="39"/>
-      <c r="I346" s="9"/>
-      <c r="J346" s="11"/>
-      <c r="K346" s="20"/>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A347" s="23">
-        <v>45748</v>
-      </c>
-      <c r="B347" s="20"/>
-      <c r="C347" s="13"/>
-      <c r="D347" s="39"/>
-      <c r="E347" s="9"/>
-      <c r="F347" s="20"/>
-      <c r="G347" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H347" s="39"/>
-      <c r="I347" s="9"/>
-      <c r="J347" s="11"/>
-      <c r="K347" s="20"/>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A348" s="23">
-        <v>45778</v>
-      </c>
-      <c r="B348" s="20"/>
-      <c r="C348" s="13"/>
-      <c r="D348" s="39"/>
-      <c r="E348" s="9"/>
-      <c r="F348" s="20"/>
-      <c r="G348" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H348" s="39"/>
-      <c r="I348" s="9"/>
-      <c r="J348" s="11"/>
-      <c r="K348" s="20"/>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A349" s="23">
-        <v>45809</v>
-      </c>
-      <c r="B349" s="20"/>
-      <c r="C349" s="13"/>
-      <c r="D349" s="39"/>
-      <c r="E349" s="9"/>
-      <c r="F349" s="20"/>
-      <c r="G349" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H349" s="39"/>
-      <c r="I349" s="9"/>
-      <c r="J349" s="11"/>
-      <c r="K349" s="20"/>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A350" s="23">
-        <v>45839</v>
-      </c>
-      <c r="B350" s="20"/>
-      <c r="C350" s="13"/>
-      <c r="D350" s="39"/>
-      <c r="E350" s="9"/>
-      <c r="F350" s="20"/>
-      <c r="G350" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H350" s="39"/>
-      <c r="I350" s="9"/>
-      <c r="J350" s="11"/>
-      <c r="K350" s="20"/>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A351" s="23">
-        <v>45870</v>
-      </c>
-      <c r="B351" s="20"/>
-      <c r="C351" s="13"/>
-      <c r="D351" s="39"/>
-      <c r="E351" s="9"/>
-      <c r="F351" s="20"/>
-      <c r="G351" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H351" s="39"/>
-      <c r="I351" s="9"/>
-      <c r="J351" s="11"/>
-      <c r="K351" s="20"/>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A352" s="23">
-        <v>45901</v>
-      </c>
-      <c r="B352" s="20"/>
-      <c r="C352" s="13"/>
-      <c r="D352" s="39"/>
-      <c r="E352" s="9"/>
-      <c r="F352" s="20"/>
-      <c r="G352" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H352" s="39"/>
-      <c r="I352" s="9"/>
-      <c r="J352" s="11"/>
-      <c r="K352" s="20"/>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A353" s="23">
-        <v>45931</v>
-      </c>
-      <c r="B353" s="20"/>
-      <c r="C353" s="13"/>
-      <c r="D353" s="39"/>
-      <c r="E353" s="9"/>
-      <c r="F353" s="20"/>
-      <c r="G353" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H353" s="39"/>
-      <c r="I353" s="9"/>
-      <c r="J353" s="11"/>
-      <c r="K353" s="20"/>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A354" s="23">
-        <v>45962</v>
-      </c>
-      <c r="B354" s="20"/>
-      <c r="C354" s="13"/>
-      <c r="D354" s="39"/>
-      <c r="E354" s="9"/>
-      <c r="F354" s="20"/>
-      <c r="G354" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H354" s="39"/>
-      <c r="I354" s="9"/>
-      <c r="J354" s="11"/>
-      <c r="K354" s="20"/>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A355" s="23">
-        <v>45992</v>
-      </c>
-      <c r="B355" s="20"/>
-      <c r="C355" s="13"/>
-      <c r="D355" s="39"/>
-      <c r="E355" s="9"/>
-      <c r="F355" s="20"/>
-      <c r="G355" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H355" s="39"/>
-      <c r="I355" s="9"/>
-      <c r="J355" s="11"/>
-      <c r="K355" s="20"/>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A356" s="23">
-        <v>46023</v>
-      </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="13"/>
-      <c r="D356" s="39"/>
-      <c r="E356" s="9"/>
-      <c r="F356" s="20"/>
-      <c r="G356" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H356" s="39"/>
-      <c r="I356" s="9"/>
-      <c r="J356" s="11"/>
-      <c r="K356" s="20"/>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A357" s="23">
-        <v>46054</v>
-      </c>
-      <c r="B357" s="20"/>
-      <c r="C357" s="13"/>
-      <c r="D357" s="39"/>
-      <c r="E357" s="9"/>
-      <c r="F357" s="20"/>
-      <c r="G357" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H357" s="39"/>
-      <c r="I357" s="9"/>
-      <c r="J357" s="11"/>
-      <c r="K357" s="20"/>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A358" s="23">
-        <v>46082</v>
-      </c>
-      <c r="B358" s="20"/>
-      <c r="C358" s="13"/>
-      <c r="D358" s="39"/>
-      <c r="E358" s="9"/>
-      <c r="F358" s="20"/>
-      <c r="G358" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H358" s="39"/>
-      <c r="I358" s="9"/>
-      <c r="J358" s="11"/>
-      <c r="K358" s="20"/>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A359" s="23">
-        <v>46113</v>
-      </c>
-      <c r="B359" s="20"/>
-      <c r="C359" s="13"/>
-      <c r="D359" s="39"/>
-      <c r="E359" s="9"/>
-      <c r="F359" s="20"/>
-      <c r="G359" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H359" s="39"/>
-      <c r="I359" s="9"/>
-      <c r="J359" s="11"/>
-      <c r="K359" s="20"/>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A360" s="23">
-        <v>46143</v>
-      </c>
-      <c r="B360" s="20"/>
-      <c r="C360" s="13"/>
-      <c r="D360" s="39"/>
-      <c r="E360" s="9"/>
-      <c r="F360" s="20"/>
-      <c r="G360" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H360" s="39"/>
-      <c r="I360" s="9"/>
-      <c r="J360" s="11"/>
-      <c r="K360" s="20"/>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A361" s="23">
-        <v>46174</v>
-      </c>
-      <c r="B361" s="20"/>
-      <c r="C361" s="13"/>
-      <c r="D361" s="39"/>
-      <c r="E361" s="9"/>
-      <c r="F361" s="20"/>
-      <c r="G361" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H361" s="39"/>
-      <c r="I361" s="9"/>
-      <c r="J361" s="11"/>
-      <c r="K361" s="20"/>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A362" s="23">
-        <v>46204</v>
-      </c>
-      <c r="B362" s="20"/>
-      <c r="C362" s="13"/>
-      <c r="D362" s="39"/>
-      <c r="E362" s="9"/>
-      <c r="F362" s="20"/>
-      <c r="G362" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H362" s="39"/>
-      <c r="I362" s="9"/>
-      <c r="J362" s="11"/>
-      <c r="K362" s="20"/>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A363" s="23">
-        <v>46235</v>
-      </c>
-      <c r="B363" s="20"/>
-      <c r="C363" s="13"/>
-      <c r="D363" s="39"/>
-      <c r="E363" s="9"/>
-      <c r="F363" s="20"/>
-      <c r="G363" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H363" s="39"/>
-      <c r="I363" s="9"/>
-      <c r="J363" s="11"/>
-      <c r="K363" s="20"/>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A364" s="23">
-        <v>46266</v>
-      </c>
-      <c r="B364" s="20"/>
-      <c r="C364" s="13"/>
-      <c r="D364" s="39"/>
-      <c r="E364" s="9"/>
-      <c r="F364" s="20"/>
-      <c r="G364" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H364" s="39"/>
-      <c r="I364" s="9"/>
-      <c r="J364" s="11"/>
-      <c r="K364" s="20"/>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A365" s="23">
-        <v>46296</v>
-      </c>
-      <c r="B365" s="20"/>
-      <c r="C365" s="13"/>
-      <c r="D365" s="39"/>
-      <c r="E365" s="9"/>
-      <c r="F365" s="20"/>
-      <c r="G365" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H365" s="39"/>
-      <c r="I365" s="9"/>
-      <c r="J365" s="11"/>
-      <c r="K365" s="20"/>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A366" s="23">
-        <v>46327</v>
-      </c>
-      <c r="B366" s="20"/>
-      <c r="C366" s="13"/>
-      <c r="D366" s="39"/>
-      <c r="E366" s="9"/>
-      <c r="F366" s="20"/>
-      <c r="G366" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H366" s="39"/>
-      <c r="I366" s="9"/>
-      <c r="J366" s="11"/>
-      <c r="K366" s="20"/>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A367" s="23">
-        <v>46357</v>
-      </c>
-      <c r="B367" s="20"/>
-      <c r="C367" s="13"/>
-      <c r="D367" s="39"/>
-      <c r="E367" s="9"/>
-      <c r="F367" s="20"/>
-      <c r="G367" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H367" s="39"/>
-      <c r="I367" s="9"/>
-      <c r="J367" s="11"/>
-      <c r="K367" s="20"/>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A368" s="23">
-        <v>46388</v>
-      </c>
-      <c r="B368" s="20"/>
-      <c r="C368" s="13"/>
-      <c r="D368" s="39"/>
-      <c r="E368" s="9"/>
-      <c r="F368" s="20"/>
-      <c r="G368" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H368" s="39"/>
-      <c r="I368" s="9"/>
-      <c r="J368" s="11"/>
-      <c r="K368" s="20"/>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A369" s="40"/>
-      <c r="B369" s="20"/>
-      <c r="C369" s="13"/>
-      <c r="D369" s="39"/>
-      <c r="E369" s="9"/>
-      <c r="F369" s="20"/>
-      <c r="G369" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H369" s="39"/>
-      <c r="I369" s="9"/>
-      <c r="J369" s="11"/>
-      <c r="K369" s="20"/>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A370" s="40"/>
-      <c r="B370" s="20"/>
-      <c r="C370" s="13"/>
-      <c r="D370" s="39"/>
-      <c r="E370" s="9"/>
-      <c r="F370" s="20"/>
-      <c r="G370" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H370" s="39"/>
-      <c r="I370" s="9"/>
-      <c r="J370" s="11"/>
-      <c r="K370" s="20"/>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A371" s="40"/>
-      <c r="B371" s="20"/>
-      <c r="C371" s="13"/>
-      <c r="D371" s="39"/>
-      <c r="E371" s="9"/>
-      <c r="F371" s="20"/>
-      <c r="G371" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H371" s="39"/>
-      <c r="I371" s="9"/>
-      <c r="J371" s="11"/>
-      <c r="K371" s="20"/>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A372" s="40"/>
-      <c r="B372" s="20"/>
-      <c r="C372" s="13"/>
-      <c r="D372" s="39"/>
-      <c r="E372" s="9"/>
-      <c r="F372" s="20"/>
-      <c r="G372" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H372" s="39"/>
-      <c r="I372" s="9"/>
-      <c r="J372" s="11"/>
-      <c r="K372" s="20"/>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A373" s="40"/>
-      <c r="B373" s="20"/>
-      <c r="C373" s="13"/>
-      <c r="D373" s="39"/>
-      <c r="E373" s="9"/>
-      <c r="F373" s="20"/>
-      <c r="G373" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H373" s="39"/>
-      <c r="I373" s="9"/>
-      <c r="J373" s="11"/>
-      <c r="K373" s="20"/>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A374" s="40"/>
-      <c r="B374" s="20"/>
-      <c r="C374" s="13"/>
-      <c r="D374" s="39"/>
-      <c r="E374" s="9"/>
-      <c r="F374" s="20"/>
-      <c r="G374" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H374" s="39"/>
-      <c r="I374" s="9"/>
-      <c r="J374" s="11"/>
-      <c r="K374" s="20"/>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A375" s="40"/>
-      <c r="B375" s="20"/>
-      <c r="C375" s="13"/>
-      <c r="D375" s="39"/>
-      <c r="E375" s="9"/>
-      <c r="F375" s="20"/>
-      <c r="G375" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H375" s="39"/>
-      <c r="I375" s="9"/>
-      <c r="J375" s="11"/>
-      <c r="K375" s="20"/>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A376" s="40"/>
-      <c r="B376" s="20"/>
-      <c r="C376" s="13"/>
-      <c r="D376" s="39"/>
-      <c r="E376" s="9"/>
-      <c r="F376" s="20"/>
-      <c r="G376" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H376" s="39"/>
-      <c r="I376" s="9"/>
-      <c r="J376" s="11"/>
-      <c r="K376" s="20"/>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A377" s="40"/>
-      <c r="B377" s="20"/>
-      <c r="C377" s="13"/>
-      <c r="D377" s="39"/>
-      <c r="E377" s="9"/>
-      <c r="F377" s="20"/>
-      <c r="G377" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H377" s="39"/>
-      <c r="I377" s="9"/>
-      <c r="J377" s="11"/>
-      <c r="K377" s="20"/>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A378" s="40"/>
-      <c r="B378" s="20"/>
-      <c r="C378" s="13"/>
-      <c r="D378" s="39"/>
-      <c r="E378" s="9"/>
-      <c r="F378" s="20"/>
-      <c r="G378" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H378" s="39"/>
-      <c r="I378" s="9"/>
-      <c r="J378" s="11"/>
-      <c r="K378" s="20"/>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A379" s="40"/>
-      <c r="B379" s="20"/>
-      <c r="C379" s="13"/>
-      <c r="D379" s="39"/>
-      <c r="E379" s="9"/>
-      <c r="F379" s="20"/>
-      <c r="G379" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H379" s="39"/>
-      <c r="I379" s="9"/>
-      <c r="J379" s="11"/>
-      <c r="K379" s="20"/>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A380" s="40"/>
-      <c r="B380" s="20"/>
-      <c r="C380" s="13"/>
-      <c r="D380" s="39"/>
-      <c r="E380" s="9"/>
-      <c r="F380" s="20"/>
-      <c r="G380" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H380" s="39"/>
-      <c r="I380" s="9"/>
-      <c r="J380" s="11"/>
-      <c r="K380" s="20"/>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A381" s="40"/>
-      <c r="B381" s="20"/>
-      <c r="C381" s="13"/>
-      <c r="D381" s="39"/>
-      <c r="E381" s="9"/>
-      <c r="F381" s="20"/>
-      <c r="G381" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H381" s="39"/>
-      <c r="I381" s="9"/>
-      <c r="J381" s="11"/>
-      <c r="K381" s="20"/>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A382" s="40"/>
-      <c r="B382" s="20"/>
-      <c r="C382" s="13"/>
-      <c r="D382" s="39"/>
-      <c r="E382" s="9"/>
-      <c r="F382" s="20"/>
-      <c r="G382" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H382" s="39"/>
-      <c r="I382" s="9"/>
-      <c r="J382" s="11"/>
-      <c r="K382" s="20"/>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A383" s="40"/>
-      <c r="B383" s="20"/>
-      <c r="C383" s="13"/>
-      <c r="D383" s="39"/>
-      <c r="E383" s="9"/>
-      <c r="F383" s="20"/>
-      <c r="G383" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H383" s="39"/>
-      <c r="I383" s="9"/>
-      <c r="J383" s="11"/>
-      <c r="K383" s="20"/>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A384" s="40"/>
-      <c r="B384" s="20"/>
-      <c r="C384" s="13"/>
-      <c r="D384" s="39"/>
-      <c r="E384" s="9"/>
-      <c r="F384" s="20"/>
-      <c r="G384" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H384" s="39"/>
-      <c r="I384" s="9"/>
-      <c r="J384" s="11"/>
-      <c r="K384" s="20"/>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A385" s="41"/>
-      <c r="B385" s="15"/>
-      <c r="C385" s="42"/>
-      <c r="D385" s="43"/>
-      <c r="E385" s="9"/>
-      <c r="F385" s="15"/>
-      <c r="G385" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H385" s="43"/>
-      <c r="I385" s="9"/>
-      <c r="J385" s="12"/>
-      <c r="K385" s="15"/>
+      <c r="J338" s="12"/>
+      <c r="K338" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10870,10 +10055,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10896,7 +10081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -10904,21 +10089,21 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -10931,7 +10116,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10960,7 +10145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>47.5</v>
       </c>
@@ -10984,17 +10169,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11015,7 +10200,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11042,7 +10227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11068,7 +10253,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11094,7 +10279,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11120,7 +10305,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11146,7 +10331,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11172,7 +10357,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11198,7 +10383,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11224,7 +10409,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11244,7 +10429,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11264,7 +10449,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11284,7 +10469,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11305,7 +10490,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11326,7 +10511,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11347,7 +10532,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11368,7 +10553,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11389,7 +10574,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11410,7 +10595,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11431,7 +10616,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11452,7 +10637,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11473,7 +10658,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11494,7 +10679,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11515,7 +10700,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11536,7 +10721,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11557,7 +10742,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11578,7 +10763,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -11599,7 +10784,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11620,7 +10805,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11641,7 +10826,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11662,7 +10847,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11683,7 +10868,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11704,7 +10889,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11713,7 +10898,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11722,7 +10907,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11731,7 +10916,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11740,7 +10925,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11749,7 +10934,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11758,7 +10943,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11767,7 +10952,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11776,7 +10961,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11785,7 +10970,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -11794,7 +10979,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -11803,7 +10988,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -11812,7 +10997,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -11821,7 +11006,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -11830,7 +11015,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -11839,7 +11024,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -11848,7 +11033,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -11857,7 +11042,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -11866,7 +11051,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -11875,7 +11060,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -11884,7 +11069,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -11893,7 +11078,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -11902,7 +11087,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -11911,7 +11096,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -11920,7 +11105,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -11929,7 +11114,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -11938,7 +11123,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -11947,7 +11132,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -11956,7 +11141,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -11965,7 +11150,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
